--- a/data_excel/接口测试用例_ (1).xlsx
+++ b/data_excel/接口测试用例_ (1).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 09:19:01', 'ftime': '2019-09-27 09:19:01', 'context': '[河南郑州公司职教园分部]快件已被 郑州工商16号楼H先生菜鸟驿站 代签收如有问题请联系庞雪涛【17752529095】。', 'location': '河南郑州公司职教园分部'}, {'time': '2019-09-27 06:56:09', 'ftime': '2019-09-27 06:56:09', 'context': '[河南郑州公司职教园分部]进行派件扫描；派送业务员：庞雪涛；联系电话：17752529095', 'location': '河南郑州公司职教园分部'}, {'time': '2019-09-26 22:25:21', 'ftime': '2019-09-26 22:25:21', 'context': '[河南郑州公司]进行快件扫描，发往：河南郑州公司职教园分部', 'location': '河南郑州公司'}, {'time': '2019-09-26 21:00:29', 'ftime': '2019-09-26 21:00:29', 'context': '[河南郑州公司]到达目的地网点，快件很快进行派送', 'location': '河南郑州公司'}, {'time': '2019-09-26 20:40:08', 'ftime': '2019-09-26 20:40:08', 'context': '[河南郑州分拨中心]从站点发出，本次转运目的地：河南郑州公司', 'location': '河南郑州分拨中心'}, {'time': '2019-09-26 20:39:09', 'ftime': '2019-09-26 20:39:09', 'context': '[河南郑州分拨中心]在分拨中心进行卸车扫描', 'location': '河南郑州分拨中心'}, {'time': '2019-09-25 23:41:35', 'ftime': '2019-09-25 23:41:35', 'context': '[浙江杭州分拨中心]进行装车扫描，发往：河南郑州分拨中心', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-25 23:37:26', 'ftime': '2019-09-25 23:37:26', 'context': '[浙江杭州分拨中心]进行中转集包扫描，发往：河南郑州公司', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-25 23:33:36', 'ftime': '2019-09-25 23:33:36', 'context': '[浙江杭州分拨中心]在分拨中心进行称重扫描', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-25 18:49:23', 'ftime': '2019-09-25 18:49:23', 'context': '[浙江市场部淘米公司大客户服务部]进行揽件扫描', 'location': '浙江市场部淘米公司大客户服务部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:07:05', 'context': '查无结果', 'ftime': '2019-09-24 10:07:05'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.08205800000000001</v>
+        <v>0.07759199999999999</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.014625</v>
+        <v>0.020453</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 12:51:36', 'ftime': '2019-09-27 12:51:36', 'context': '快件已本人签收', 'location': '龙城宝荷'}, {'time': '2019-09-27 10:03:15', 'ftime': '2019-09-27 10:03:15', 'context': '[龙城宝荷]的【李芳健】正在派件, 电话：15625832130', 'location': '龙城宝荷'}, {'time': '2019-09-27 08:07:53', 'ftime': '2019-09-27 08:07:53', 'context': '快件已到达[龙城宝荷],上一站是[深圳分拨中心]', 'location': '龙城宝荷'}, {'time': '2019-09-27 02:16:35', 'ftime': '2019-09-27 02:16:35', 'context': '快件已由[深圳分拨中心]发往[龙城宝荷]', 'location': '深圳分拨中心'}, {'time': '2019-09-26 23:34:54', 'ftime': '2019-09-26 23:34:54', 'context': '快件已到达[深圳分拨中心],上一站是[塘厦石鼓]', 'location': '深圳分拨中心'}, {'time': '2019-09-26 22:27:47', 'ftime': '2019-09-26 22:27:47', 'context': '快件已由[塘厦石鼓]发往[虎门分拨中心]', 'location': '塘厦石鼓'}, {'time': '2019-09-26 22:26:47', 'ftime': '2019-09-26 22:26:47', 'context': '[塘厦石鼓]【徐振18128010726】已收件', 'location': '塘厦石鼓'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 09:40:46', 'ftime': '2019-09-28 09:40:46', 'context': '快件已从【芜湖转运分拨】出发,下一站是【和县营业部E】,货物正在运输中', 'location': ''}, {'time': '2019-09-28 07:49:46', 'ftime': '2019-09-28 07:49:46', 'context': '快件已到达【芜湖转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-28 00:43:30', 'ftime': '2019-09-28 00:43:30', 'context': '快件已从【上海浦西转运分拨】出发,下一站是【芜湖转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-27 04:57:41', 'ftime': '2019-09-27 04:57:41', 'context': '快件已到达【上海浦西转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-26 23:34:42', 'ftime': '2019-09-26 23:34:42', 'context': '快件已从【上海浦东转运分拨】出发,下一站是【上海浦西转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-26 20:58:00', 'ftime': '2019-09-26 20:58:00', 'context': '快件已到达【上海浦东转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-26 19:32:40', 'ftime': '2019-09-26 19:32:40', 'context': '快件已从【南汇棋轩营业部】出发,下一站是【上海浦东转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-26 17:06:59', 'ftime': '2019-09-26 17:06:59', 'context': '快件已在【南汇棋轩营业部】15901846114被揽件,揽件员是【陈惠江】', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.07521899999999999</v>
+        <v>0.069246</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.011014</v>
+        <v>0.008826000000000001</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 09:42:48', 'context': '查无结果', 'ftime': '2019-09-19 09:42:48'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:58:26', 'ftime': '2019-09-28 22:58:26', 'context': '快件已到达【郑州转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-27 21:18:11', 'ftime': '2019-09-27 21:18:11', 'context': '快件已从【无锡枢纽分拨】出发,下一站是【郑州转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-27 20:59:44', 'ftime': '2019-09-27 20:59:44', 'context': '快件已到达【无锡枢纽分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-27 20:40:27', 'ftime': '2019-09-27 20:40:27', 'context': '快件已从【锡山羊尖营业部】出发,下一站是【无锡枢纽分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-27 20:00:56', 'ftime': '2019-09-27 20:00:56', 'context': '快件已在【锡山羊尖营业部】13771131527被揽件,揽件员是【周辉】', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.06732399999999999</v>
+        <v>0.073738</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.01113</v>
+        <v>0.009298000000000001</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-26 09:42:49', 'context': '查无结果', 'ftime': '2019-09-26 09:42:49'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:07:05', 'context': '查无结果', 'ftime': '2019-09-24 10:07:05'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.06208</v>
+        <v>0.07066</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.011622</v>
+        <v>0.008966999999999999</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 09:42:49', 'context': '查无结果', 'ftime': '2019-09-15 09:42:49'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 12:53:05', 'ftime': '2019-09-28 12:53:05', 'context': '圆通合作点【蓝店】快件已到达鄞州区邱隘镇盛莫路789号驿站,联系电话18823806943', 'location': ''}, {'time': '2019-09-28 09:12:46', 'ftime': '2019-09-28 09:12:46', 'context': '【浙江省宁波市东钱湖公司】 派件中 派件人: 郭奎 电话 13738809925 如有疑问，请联系：0574-89063666', 'location': ''}, {'time': '2019-09-28 07:18:54', 'ftime': '2019-09-28 07:18:54', 'context': '【浙江省宁波市东钱湖公司】 已收入', 'location': ''}, {'time': '2019-09-28 02:32:56', 'ftime': '2019-09-28 02:32:56', 'context': '【宁波转运中心】 已发出 下一站 【浙江省宁波市东钱湖】', 'location': ''}, {'time': '2019-09-28 02:12:16', 'ftime': '2019-09-28 02:12:16', 'context': '【宁波转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 06:51:54', 'ftime': '2019-09-26 06:51:54', 'context': '【广州转运中心】 已发出 下一站 【宁波转运中心】', 'location': ''}, {'time': '2019-09-26 06:47:21', 'ftime': '2019-09-26 06:47:21', 'context': '【广州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 02:59:25', 'ftime': '2019-09-26 02:59:25', 'context': '【广东省广州市黄埔区大沙】 已发出 下一站 【广州转运中心】', 'location': ''}, {'time': '2019-09-26 01:35:54', 'ftime': '2019-09-26 01:35:54', 'context': '【广东省广州市黄埔区大沙公司】 已打包', 'location': ''}, {'time': '2019-09-26 01:19:11', 'ftime': '2019-09-26 01:19:11', 'context': '【广东省广州市黄埔区大沙公司】 已收件 取件人: 黄海存 (15374052250)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.065974</v>
+        <v>0.16336</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.011645</v>
+        <v>0.009837</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-10-29 17:51:17', 'ftime': '2018-10-29 17:51:17', 'context': '订单已由门卫代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-10-29 14:36:28', 'ftime': '2018-10-29 14:36:28', 'context': '配送员开始配送，请您准备收货，配送员，秦晓辉，手机号，15909376071', 'location': None}, {'time': '2018-10-29 14:00:25', 'ftime': '2018-10-29 14:00:25', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-10-29 14:00:24', 'ftime': '2018-10-29 14:00:24', 'context': '货物已到达【渝北站】', 'location': None}, {'time': '2018-10-29 12:32:49', 'ftime': '2018-10-29 12:32:49', 'context': '货物已完成分拣，离开【重庆亚一分拨中心】', 'location': None}, {'time': '2018-10-27 21:56:25', 'ftime': '2018-10-27 21:56:25', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': None}, {'time': '2018-10-27 21:52:33', 'ftime': '2018-10-27 21:52:33', 'context': '货物已到达【泉州外单分拣中心】', 'location': None}, {'time': '2018-10-27 18:43:00', 'ftime': '2018-10-27 18:43:00', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-10-27 18:43:00', 'ftime': '2018-10-27 18:43:00', 'context': '配送员吕荣宇已经揽收完成', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:37:11', 'ftime': '2019-09-29 08:37:11', 'context': '快件在【威海六部ZX】做了派件', 'location': ''}, {'time': '2019-09-28 13:00:58', 'ftime': '2019-09-28 13:00:58', 'context': '快件已到达【威海六部ZX】,站点客服电话【17662024327】', 'location': ''}, {'time': '2019-09-28 12:01:00', 'ftime': '2019-09-28 12:01:00', 'context': ' 10件货物（共12件）在【威海六部】做了派件;', 'location': ''}, {'time': '2019-09-28 11:59:06', 'ftime': '2019-09-28 11:59:06', 'context': ' 2件货物（共12件）已到达【威海六部】;子单三位尾号：002，009，', 'location': ''}, {'time': '2019-09-28 11:59:05', 'ftime': '2019-09-28 11:59:05', 'context': '快件在【威海六部】做了派件', 'location': ''}, {'time': '2019-09-28 11:59:05', 'ftime': '2019-09-28 11:59:05', 'context': '快件已到达【威海六部】', 'location': ''}, {'time': '2019-09-28 03:52:05', 'ftime': '2019-09-28 03:52:05', 'context': '快件由【青岛分拨】发往【威海六部】', 'location': ''}, {'time': '2019-09-27 20:07:45', 'ftime': '2019-09-27 20:07:45', 'context': '快件已到达【青岛分拨】', 'location': ''}, {'time': '2019-09-26 04:34:50', 'ftime': '2019-09-26 04:34:50', 'context': '快件由【广州南分拨】发往【青岛分拨】', 'location': ''}, {'time': '2019-09-26 03:41:30', 'ftime': '2019-09-26 03:41:30', 'context': '快件已到达【广州南分拨】', 'location': ''}, {'time': '2019-09-25 05:31:25', 'ftime': '2019-09-25 05:31:25', 'context': '快件由【深圳市区分拨】发往【广州南分拨】', 'location': ''}, {'time': '2019-09-24 23:28:15', 'ftime': '2019-09-24 23:28:15', 'context': '快件已到达【深圳市区分拨】', 'location': ''}, {'time': '2019-09-24 22:29:40', 'ftime': '2019-09-24 22:29:40', 'context': '快件由【金豪三区】发往【深圳市区分拨】', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.070038</v>
+        <v>0.069658</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010268</v>
+        <v>0.015163</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 02:24:00', 'ftime': '2019-09-29 02:24:00', 'context': '[邵阳市]快件到达 【邵阳宝庆集散点】', 'location': '邵阳市'}, {'time': '2019-09-28 22:56:00', 'ftime': '2019-09-28 22:56:00', 'context': '[长沙市]快件已发车', 'location': '长沙市'}, {'time': '2019-09-28 22:52:00', 'ftime': '2019-09-28 22:52:00', 'context': '[长沙市]快件在【长沙星沙集散中心】已装车,准备发往 【邵阳宝庆集散点】', 'location': '长沙市'}, {'time': '2019-09-28 21:47:00', 'ftime': '2019-09-28 21:47:00', 'context': '[长沙市]快件到达 【长沙星沙集散中心】', 'location': '长沙市'}, {'time': '2019-09-28 21:30:00', 'ftime': '2019-09-28 21:30:00', 'context': '[长沙市]快件已发车', 'location': '长沙市'}, {'time': '2019-09-28 18:01:00', 'ftime': '2019-09-28 18:01:00', 'context': '[长沙市]快件在【长沙晚报大道营业点】已装车,准备发往 【长沙星沙集散中心】', 'location': '长沙市'}, {'time': '2019-09-28 17:34:00', 'ftime': '2019-09-28 17:34:00', 'context': '[长沙市]顺丰速运 已收取快件', 'location': '长沙市'}, {'time': '2019-09-28 17:01:00', 'ftime': '2019-09-28 17:01:00', 'context': '[长沙市]顺丰速运 已收取快件', 'location': '长沙市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:07:06', 'context': '查无结果', 'ftime': '2019-09-10 10:07:06'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.069978</v>
+        <v>0.068902</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010607</v>
+        <v>0.011225</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 03:05:41', 'ftime': '2019-09-28 03:05:41', 'context': '[西安市/咸阳市]快件已发车', 'location': '西安市/咸阳市'}, {'time': '2019-09-28 02:46:37', 'ftime': '2019-09-28 02:46:37', 'context': '[西安市/咸阳市]快件在【西北枢纽分拨中心】已装车,准备发往 【乌鲁木齐总集散中心】', 'location': '西安市/咸阳市'}, {'time': '2019-09-28 01:53:53', 'ftime': '2019-09-28 01:53:53', 'context': '[西安市/咸阳市]快件到达 【西北枢纽分拨中心】', 'location': '西安市/咸阳市'}, {'time': '2019-09-27 01:30:01', 'ftime': '2019-09-27 01:30:01', 'context': '[上海市]快件已发车', 'location': '上海市'}, {'time': '2019-09-26 23:04:55', 'ftime': '2019-09-26 23:04:55', 'context': '[上海市]快件在【上海浦江集散中心】已装车,准备发往 【西北枢纽分拨中心】', 'location': '上海市'}, {'time': '2019-09-26 22:08:27', 'ftime': '2019-09-26 22:08:27', 'context': '[上海市]快件到达 【上海浦江集散中心】', 'location': '上海市'}, {'time': '2019-09-26 21:09:19', 'ftime': '2019-09-26 21:09:19', 'context': '[上海市]快件已发车', 'location': '上海市'}, {'time': '2019-09-26 21:07:18', 'ftime': '2019-09-26 21:07:18', 'context': '[上海市]快件在【上海闸北九龙营业点】已装车,准备发往 【上海浦江集散中心】', 'location': '上海市'}, {'time': '2019-09-26 19:20:44', 'ftime': '2019-09-26 19:20:44', 'context': '[上海市]顺丰速运 已收取快件', 'location': '上海市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-26 10:07:06', 'context': '查无结果', 'ftime': '2019-09-26 10:07:06'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.071922</v>
+        <v>0.066384</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.013716</v>
+        <v>0.012545</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:13:57', 'ftime': '2019-09-29 09:13:57', 'context': '[乌鲁木齐市]新市区揽投部】安排投递,投递员:王佳伦,电话:17399912528', 'location': None}, {'time': '2019-09-29 08:29:05', 'ftime': '2019-09-29 08:29:05', 'context': '[乌鲁木齐市]到达【新市区揽投部】', 'location': None}, {'time': '2019-09-29 07:58:30', 'ftime': '2019-09-29 07:58:30', 'context': '[乌鲁木齐市]离开【维吾尔自治区乌鲁木齐封发邮件】,下一站【新市区揽投部】', 'location': None}, {'time': '2019-09-27 20:18:53', 'ftime': '2019-09-27 20:18:53', 'context': '[广州市]离开【广东航空邮件处理中心】,下一站【乌鲁木齐处理中心】（经转）', 'location': None}, {'time': '2019-09-26 21:54:41', 'ftime': '2019-09-26 21:54:41', 'context': '离开【东莞市邮件处理中心】,下一站【广州机北】', 'location': None}, {'time': '2019-09-26 18:11:57', 'ftime': '2019-09-26 18:11:57', 'context': '到达【东莞市邮件处理中心】', 'location': None}, {'time': '2019-09-26 18:11:06', 'ftime': '2019-09-26 18:11:06', 'context': '离开【东莞市电商物流大朗电商仓配】,下一站【东莞速处】', 'location': None}, {'time': '2019-09-26 16:55:56', 'ftime': '2019-09-26 16:55:56', 'context': '【东莞市电商物流大朗电商仓配】已收件,揽投员:谢雪松,电话:13692796904', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:07:06', 'context': '查无结果', 'ftime': '2019-09-10 10:07:06'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.071524</v>
+        <v>0.06586599999999999</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009774</v>
+        <v>0.009959000000000001</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (1).xlsx
+++ b/data_excel/接口测试用例_ (1).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:07:05', 'context': '查无结果', 'ftime': '2019-09-24 10:07:05'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:02:32', 'ftime': '2019-09-29 08:02:32', 'context': '已到达-青海西宁城北营业厅', 'location': ''}, {'time': '2019-09-28 22:52:23', 'ftime': '2019-09-28 22:52:23', 'context': '青海西宁航空部-已发往-青海西宁城北营业厅', 'location': ''}, {'time': '2019-09-28 22:48:08', 'ftime': '2019-09-28 22:48:08', 'context': '已到达-青海西宁航空部', 'location': ''}, {'time': '2019-09-28 22:48:08', 'ftime': '2019-09-28 22:48:08', 'context': '快件已在【青海西宁航空部】进行卸车，扫描员【王燕】', 'location': ''}, {'time': '2019-09-28 01:00:52', 'ftime': '2019-09-28 01:00:52', 'context': '甘肃兰州转运中心-已装袋发往-青海西宁航空部', 'location': ''}, {'time': '2019-09-28 01:00:52', 'ftime': '2019-09-28 01:00:52', 'context': '甘肃兰州转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 01:00:48', 'ftime': '2019-09-28 01:00:48', 'context': '已到达-甘肃兰州转运中心', 'location': ''}, {'time': '2019-09-28 01:00:48', 'ftime': '2019-09-28 01:00:48', 'context': '快件已在【甘肃兰州转运中心】进行卸车，扫描员【兰州中转03】', 'location': ''}, {'time': '2019-09-28 00:43:29', 'ftime': '2019-09-28 00:43:29', 'context': '已到达-甘肃兰州转运中心', 'location': ''}, {'time': '2019-09-26 15:02:57', 'ftime': '2019-09-26 15:02:57', 'context': '河南郑州转运中心-已装袋发往-甘肃兰州转运中心', 'location': ''}, {'time': '2019-09-26 15:02:57', 'ftime': '2019-09-26 15:02:57', 'context': '河南郑州转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-26 15:00:47', 'ftime': '2019-09-26 15:00:47', 'context': '已到达-河南郑州转运中心', 'location': ''}, {'time': '2019-09-26 15:00:47', 'ftime': '2019-09-26 15:00:47', 'context': '快件已在【河南郑州转运中心】进行卸车，扫描员【计泡4】', 'location': ''}, {'time': '2019-09-26 14:47:17', 'ftime': '2019-09-26 14:47:17', 'context': '已到达-河南郑州转运中心', 'location': ''}, {'time': '2019-09-25 21:31:49', 'ftime': '2019-09-25 21:31:49', 'context': '宁夏银川转运中心-已装袋发往-青海西宁航空部', 'location': ''}, {'time': '2019-09-25 21:31:15', 'ftime': '2019-09-25 21:31:15', 'context': '宁夏银川转运中心-已装袋发往-河南郑州转运中心', 'location': ''}, {'time': '2019-09-25 21:31:15', 'ftime': '2019-09-25 21:31:15', 'context': '宁夏银川转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 20:45:01', 'ftime': '2019-09-25 20:45:01', 'context': '宁夏银川转运中心-已发往-青海西宁航空部', 'location': ''}, {'time': '2019-09-25 20:45:01', 'ftime': '2019-09-25 20:45:01', 'context': '宁夏银川转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-25 20:05:08', 'ftime': '2019-09-25 20:05:08', 'context': '已到达-宁夏银川转运中心', 'location': ''}, {'time': '2019-09-25 18:45:51', 'ftime': '2019-09-25 18:45:51', 'context': '宁夏银川石油城营业厅-已发往-宁夏银川转运中心', 'location': ''}, {'time': '2019-09-25 18:45:49', 'ftime': '2019-09-25 18:45:49', 'context': '宁夏银川石油城营业厅-石油城营业厅(13995071689,18009572146)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.07759199999999999</v>
+        <v>0.084438</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.020453</v>
+        <v>0.014494</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 09:40:46', 'ftime': '2019-09-28 09:40:46', 'context': '快件已从【芜湖转运分拨】出发,下一站是【和县营业部E】,货物正在运输中', 'location': ''}, {'time': '2019-09-28 07:49:46', 'ftime': '2019-09-28 07:49:46', 'context': '快件已到达【芜湖转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-28 00:43:30', 'ftime': '2019-09-28 00:43:30', 'context': '快件已从【上海浦西转运分拨】出发,下一站是【芜湖转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-27 04:57:41', 'ftime': '2019-09-27 04:57:41', 'context': '快件已到达【上海浦西转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-26 23:34:42', 'ftime': '2019-09-26 23:34:42', 'context': '快件已从【上海浦东转运分拨】出发,下一站是【上海浦西转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-26 20:58:00', 'ftime': '2019-09-26 20:58:00', 'context': '快件已到达【上海浦东转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-26 19:32:40', 'ftime': '2019-09-26 19:32:40', 'context': '快件已从【南汇棋轩营业部】出发,下一站是【上海浦东转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-26 17:06:59', 'ftime': '2019-09-26 17:06:59', 'context': '快件已在【南汇棋轩营业部】15901846114被揽件,揽件员是【陈惠江】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:51:47', 'ftime': '2019-09-29 05:51:47', 'context': '【河南省南阳市】 已发出 下一站 【河南省南阳市中州路】', 'location': ''}, {'time': '2019-09-29 05:14:11', 'ftime': '2019-09-29 05:14:11', 'context': '【河南省南阳市公司】 已收入', 'location': ''}, {'time': '2019-09-28 19:40:26', 'ftime': '2019-09-28 19:40:26', 'context': '【漯河转运中心】 已发出 下一站 【河南省南阳市】', 'location': ''}, {'time': '2019-09-28 19:38:25', 'ftime': '2019-09-28 19:38:25', 'context': '【漯河转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 02:26:57', 'ftime': '2019-09-28 02:26:57', 'context': '【上虞转运中心】 已发出 下一站 【漯河转运中心】', 'location': ''}, {'time': '2019-09-28 02:25:25', 'ftime': '2019-09-28 02:25:25', 'context': '【上虞转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 20:41:58', 'ftime': '2019-09-27 20:41:58', 'context': '【宁波转运中心】 已发出 下一站 【上虞转运中心】', 'location': ''}, {'time': '2019-09-27 20:40:56', 'ftime': '2019-09-27 20:40:56', 'context': '【宁波转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 18:11:56', 'ftime': '2019-09-27 18:11:56', 'context': '【浙江省宁波市下应】 已发出 下一站 【宁波转运中心】', 'location': ''}, {'time': '2019-09-27 18:10:40', 'ftime': '2019-09-27 18:10:40', 'context': '【浙江省宁波市下应公司】 已收件 取件人: 黄忠辉 (15968469510)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.069246</v>
+        <v>0.071824</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.008826000000000001</v>
+        <v>0.008574999999999999</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:58:26', 'ftime': '2019-09-28 22:58:26', 'context': '快件已到达【郑州转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-27 21:18:11', 'ftime': '2019-09-27 21:18:11', 'context': '快件已从【无锡枢纽分拨】出发,下一站是【郑州转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-27 20:59:44', 'ftime': '2019-09-27 20:59:44', 'context': '快件已到达【无锡枢纽分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-09-27 20:40:27', 'ftime': '2019-09-27 20:40:27', 'context': '快件已从【锡山羊尖营业部】出发,下一站是【无锡枢纽分拨】,货物正在运输中', 'location': ''}, {'time': '2019-09-27 20:00:56', 'ftime': '2019-09-27 20:00:56', 'context': '快件已在【锡山羊尖营业部】13771131527被揽件,揽件员是【周辉】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:22:08', 'context': '查无结果', 'ftime': '2019-09-05 10:22:08'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.073738</v>
+        <v>0.067785</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009298000000000001</v>
+        <v>0.019863</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:07:05', 'context': '查无结果', 'ftime': '2019-09-24 10:07:05'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'Y05', 'com': 'zhongtong', 'status': '200', 'state': '2', 'data': [{'time': '2019-09-28 16:19:19', 'ftime': '2019-09-28 16:19:19', 'context': '【广东省深圳市华茂公司】 失败签收录入 李俊强', 'location': None}, {'time': '2019-09-28 08:01:53', 'ftime': '2019-09-28 08:01:53', 'context': '【广东省深圳市华茂公司】 派件人: 李俊强 派件中 派件员电话17530403457', 'location': None}, {'time': '2019-09-26 02:13:26', 'ftime': '2019-09-26 02:13:26', 'context': '【广东省深圳市华茂公司】 已打包', 'location': None}, {'time': '2019-09-26 01:36:52', 'ftime': '2019-09-26 01:36:52', 'context': '【广东省深圳市华茂公司】 已收件', 'location': None}, {'time': '2019-09-25 16:34:10', 'ftime': '2019-09-25 16:34:10', 'context': '【广东省深圳市华茂公司】 取件人: 李松 已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.07066</v>
+        <v>0.071052</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.008966999999999999</v>
+        <v>0.010045</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 12:53:05', 'ftime': '2019-09-28 12:53:05', 'context': '圆通合作点【蓝店】快件已到达鄞州区邱隘镇盛莫路789号驿站,联系电话18823806943', 'location': ''}, {'time': '2019-09-28 09:12:46', 'ftime': '2019-09-28 09:12:46', 'context': '【浙江省宁波市东钱湖公司】 派件中 派件人: 郭奎 电话 13738809925 如有疑问，请联系：0574-89063666', 'location': ''}, {'time': '2019-09-28 07:18:54', 'ftime': '2019-09-28 07:18:54', 'context': '【浙江省宁波市东钱湖公司】 已收入', 'location': ''}, {'time': '2019-09-28 02:32:56', 'ftime': '2019-09-28 02:32:56', 'context': '【宁波转运中心】 已发出 下一站 【浙江省宁波市东钱湖】', 'location': ''}, {'time': '2019-09-28 02:12:16', 'ftime': '2019-09-28 02:12:16', 'context': '【宁波转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 06:51:54', 'ftime': '2019-09-26 06:51:54', 'context': '【广州转运中心】 已发出 下一站 【宁波转运中心】', 'location': ''}, {'time': '2019-09-26 06:47:21', 'ftime': '2019-09-26 06:47:21', 'context': '【广州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 02:59:25', 'ftime': '2019-09-26 02:59:25', 'context': '【广东省广州市黄埔区大沙】 已发出 下一站 【广州转运中心】', 'location': ''}, {'time': '2019-09-26 01:35:54', 'ftime': '2019-09-26 01:35:54', 'context': '【广东省广州市黄埔区大沙公司】 已打包', 'location': ''}, {'time': '2019-09-26 01:19:11', 'ftime': '2019-09-26 01:19:11', 'context': '【广东省广州市黄埔区大沙公司】 已收件 取件人: 黄海存 (15374052250)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-20 19:10:32', 'ftime': '2018-11-20 19:10:32', 'context': '[昆明市]昆明市【昆明西山十三部】，快递驿站代收 已签收', 'location': None}, {'time': '2018-11-20 14:38:56', 'ftime': '2018-11-20 14:38:56', 'context': '[昆明市]昆明市【昆明西山十三部】，【李本仁18388070006】正在派件', 'location': None}, {'time': '2018-11-20 13:52:09', 'ftime': '2018-11-20 13:52:09', 'context': '[昆明市]到昆明市【昆明西山十三部】', 'location': None}, {'time': '2018-11-20 02:39:43', 'ftime': '2018-11-20 02:39:43', 'context': '[昆明市]昆明市【昆明转运中心】，正发往【昆明西山十三部】', 'location': None}, {'time': '2018-11-19 22:56:10', 'ftime': '2018-11-19 22:56:10', 'context': '[昆明市]到昆明市【昆明转运中心】', 'location': None}, {'time': '2018-11-17 21:31:48', 'ftime': '2018-11-17 21:31:48', 'context': '[杭州市]杭州市【杭州转运中心】，正发往【昆明转运中心】', 'location': None}, {'time': '2018-11-17 21:29:51', 'ftime': '2018-11-17 21:29:51', 'context': '[杭州市]到杭州市【杭州转运中心】', 'location': None}, {'time': '2018-11-17 20:06:56', 'ftime': '2018-11-17 20:06:56', 'context': '[杭州市]杭州市【江干五部】，正发往【杭州转运中心】', 'location': None}, {'time': '2018-11-17 19:54:59', 'ftime': '2018-11-17 19:54:59', 'context': '[杭州市]到杭州市【江干五部集货点】', 'location': None}, {'time': '2018-11-17 16:52:44', 'ftime': '2018-11-17 16:52:44', 'context': '[杭州市]杭州市【杭州小件X06-002】，【李先星/13486356185】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.16336</v>
+        <v>0.068147</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.009837</v>
+        <v>0.009575</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:37:11', 'ftime': '2019-09-29 08:37:11', 'context': '快件在【威海六部ZX】做了派件', 'location': ''}, {'time': '2019-09-28 13:00:58', 'ftime': '2019-09-28 13:00:58', 'context': '快件已到达【威海六部ZX】,站点客服电话【17662024327】', 'location': ''}, {'time': '2019-09-28 12:01:00', 'ftime': '2019-09-28 12:01:00', 'context': ' 10件货物（共12件）在【威海六部】做了派件;', 'location': ''}, {'time': '2019-09-28 11:59:06', 'ftime': '2019-09-28 11:59:06', 'context': ' 2件货物（共12件）已到达【威海六部】;子单三位尾号：002，009，', 'location': ''}, {'time': '2019-09-28 11:59:05', 'ftime': '2019-09-28 11:59:05', 'context': '快件在【威海六部】做了派件', 'location': ''}, {'time': '2019-09-28 11:59:05', 'ftime': '2019-09-28 11:59:05', 'context': '快件已到达【威海六部】', 'location': ''}, {'time': '2019-09-28 03:52:05', 'ftime': '2019-09-28 03:52:05', 'context': '快件由【青岛分拨】发往【威海六部】', 'location': ''}, {'time': '2019-09-27 20:07:45', 'ftime': '2019-09-27 20:07:45', 'context': '快件已到达【青岛分拨】', 'location': ''}, {'time': '2019-09-26 04:34:50', 'ftime': '2019-09-26 04:34:50', 'context': '快件由【广州南分拨】发往【青岛分拨】', 'location': ''}, {'time': '2019-09-26 03:41:30', 'ftime': '2019-09-26 03:41:30', 'context': '快件已到达【广州南分拨】', 'location': ''}, {'time': '2019-09-25 05:31:25', 'ftime': '2019-09-25 05:31:25', 'context': '快件由【深圳市区分拨】发往【广州南分拨】', 'location': ''}, {'time': '2019-09-24 23:28:15', 'ftime': '2019-09-24 23:28:15', 'context': '快件已到达【深圳市区分拨】', 'location': ''}, {'time': '2019-09-24 22:29:40', 'ftime': '2019-09-24 22:29:40', 'context': '快件由【金豪三区】发往【深圳市区分拨】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-21 08:44:50', 'ftime': '2019-09-21 08:44:50', 'context': '客户签收人: 长胜小区丰巢柜 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：13511326773，投诉电话：0573-85636090', 'location': ''}, {'time': '2019-09-21 08:40:41', 'ftime': '2019-09-21 08:40:41', 'context': '快件已由长胜小区大门口旁丰巢智能柜丰巢柜代收，取件码已发送，请及时取件。', 'location': ''}, {'time': '2019-09-21 08:04:08', 'ftime': '2019-09-21 08:04:08', 'context': '【浙江省嘉兴市平湖市公司】 派件中 派件人: 洪梦琳 电话 13511326773 如有疑问，请联系：0573-85636090', 'location': ''}, {'time': '2019-09-21 06:51:49', 'ftime': '2019-09-21 06:51:49', 'context': '【浙江省嘉兴市平湖市公司】 已收入', 'location': ''}, {'time': '2019-09-20 20:50:32', 'ftime': '2019-09-20 20:50:32', 'context': '【嘉兴转运中心】 已发出 下一站 【浙江省嘉兴市平湖市】', 'location': ''}, {'time': '2019-09-20 20:45:28', 'ftime': '2019-09-20 20:45:28', 'context': '【嘉兴转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-20 05:11:51', 'ftime': '2019-09-20 05:11:51', 'context': '【济南转运中心】 已发出 下一站 【临海转运中心】', 'location': ''}, {'time': '2019-09-19 23:00:39', 'ftime': '2019-09-19 23:00:39', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 19:29:55', 'ftime': '2019-09-19 19:29:55', 'context': '【山东省聊城市】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-19 19:12:09', 'ftime': '2019-09-19 19:12:09', 'context': '【山东省聊城市公司】 已打包', 'location': ''}, {'time': '2019-09-19 15:56:15', 'ftime': '2019-09-19 15:56:15', 'context': '【山东省聊城市公司】 已收件 取件人: 郭清全 (15166553964)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.069658</v>
+        <v>0.07377499999999999</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.015163</v>
+        <v>0.009892</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:07:06', 'context': '查无结果', 'ftime': '2019-09-10 10:07:06'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 10:22:09', 'context': '查无结果', 'ftime': '2019-09-15 10:22:09'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.068902</v>
+        <v>0.066896</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.011225</v>
+        <v>0.010584</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-26 10:07:06', 'context': '查无结果', 'ftime': '2019-09-26 10:07:06'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-07 10:22:09', 'context': '查无结果', 'ftime': '2019-09-07 10:22:09'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.066384</v>
+        <v>0.062076</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.012545</v>
+        <v>0.014594</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:07:06', 'context': '查无结果', 'ftime': '2019-09-10 10:07:06'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 10:22:09', 'context': '查无结果', 'ftime': '2019-09-06 10:22:09'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.06586599999999999</v>
+        <v>0.067353</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009959000000000001</v>
+        <v>0.037058</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (1).xlsx
+++ b/data_excel/接口测试用例_ (1).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:02:32', 'ftime': '2019-09-29 08:02:32', 'context': '已到达-青海西宁城北营业厅', 'location': ''}, {'time': '2019-09-28 22:52:23', 'ftime': '2019-09-28 22:52:23', 'context': '青海西宁航空部-已发往-青海西宁城北营业厅', 'location': ''}, {'time': '2019-09-28 22:48:08', 'ftime': '2019-09-28 22:48:08', 'context': '已到达-青海西宁航空部', 'location': ''}, {'time': '2019-09-28 22:48:08', 'ftime': '2019-09-28 22:48:08', 'context': '快件已在【青海西宁航空部】进行卸车，扫描员【王燕】', 'location': ''}, {'time': '2019-09-28 01:00:52', 'ftime': '2019-09-28 01:00:52', 'context': '甘肃兰州转运中心-已装袋发往-青海西宁航空部', 'location': ''}, {'time': '2019-09-28 01:00:52', 'ftime': '2019-09-28 01:00:52', 'context': '甘肃兰州转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 01:00:48', 'ftime': '2019-09-28 01:00:48', 'context': '已到达-甘肃兰州转运中心', 'location': ''}, {'time': '2019-09-28 01:00:48', 'ftime': '2019-09-28 01:00:48', 'context': '快件已在【甘肃兰州转运中心】进行卸车，扫描员【兰州中转03】', 'location': ''}, {'time': '2019-09-28 00:43:29', 'ftime': '2019-09-28 00:43:29', 'context': '已到达-甘肃兰州转运中心', 'location': ''}, {'time': '2019-09-26 15:02:57', 'ftime': '2019-09-26 15:02:57', 'context': '河南郑州转运中心-已装袋发往-甘肃兰州转运中心', 'location': ''}, {'time': '2019-09-26 15:02:57', 'ftime': '2019-09-26 15:02:57', 'context': '河南郑州转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-26 15:00:47', 'ftime': '2019-09-26 15:00:47', 'context': '已到达-河南郑州转运中心', 'location': ''}, {'time': '2019-09-26 15:00:47', 'ftime': '2019-09-26 15:00:47', 'context': '快件已在【河南郑州转运中心】进行卸车，扫描员【计泡4】', 'location': ''}, {'time': '2019-09-26 14:47:17', 'ftime': '2019-09-26 14:47:17', 'context': '已到达-河南郑州转运中心', 'location': ''}, {'time': '2019-09-25 21:31:49', 'ftime': '2019-09-25 21:31:49', 'context': '宁夏银川转运中心-已装袋发往-青海西宁航空部', 'location': ''}, {'time': '2019-09-25 21:31:15', 'ftime': '2019-09-25 21:31:15', 'context': '宁夏银川转运中心-已装袋发往-河南郑州转运中心', 'location': ''}, {'time': '2019-09-25 21:31:15', 'ftime': '2019-09-25 21:31:15', 'context': '宁夏银川转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 20:45:01', 'ftime': '2019-09-25 20:45:01', 'context': '宁夏银川转运中心-已发往-青海西宁航空部', 'location': ''}, {'time': '2019-09-25 20:45:01', 'ftime': '2019-09-25 20:45:01', 'context': '宁夏银川转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-25 20:05:08', 'ftime': '2019-09-25 20:05:08', 'context': '已到达-宁夏银川转运中心', 'location': ''}, {'time': '2019-09-25 18:45:51', 'ftime': '2019-09-25 18:45:51', 'context': '宁夏银川石油城营业厅-已发往-宁夏银川转运中心', 'location': ''}, {'time': '2019-09-25 18:45:49', 'ftime': '2019-09-25 18:45:49', 'context': '宁夏银川石油城营业厅-石油城营业厅(13995071689,18009572146)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:28:19', 'context': '查无结果', 'ftime': '2019-09-03 10:28:19'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.084438</v>
+        <v>0.072417</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.014494</v>
+        <v>0.00924</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:51:47', 'ftime': '2019-09-29 05:51:47', 'context': '【河南省南阳市】 已发出 下一站 【河南省南阳市中州路】', 'location': ''}, {'time': '2019-09-29 05:14:11', 'ftime': '2019-09-29 05:14:11', 'context': '【河南省南阳市公司】 已收入', 'location': ''}, {'time': '2019-09-28 19:40:26', 'ftime': '2019-09-28 19:40:26', 'context': '【漯河转运中心】 已发出 下一站 【河南省南阳市】', 'location': ''}, {'time': '2019-09-28 19:38:25', 'ftime': '2019-09-28 19:38:25', 'context': '【漯河转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 02:26:57', 'ftime': '2019-09-28 02:26:57', 'context': '【上虞转运中心】 已发出 下一站 【漯河转运中心】', 'location': ''}, {'time': '2019-09-28 02:25:25', 'ftime': '2019-09-28 02:25:25', 'context': '【上虞转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 20:41:58', 'ftime': '2019-09-27 20:41:58', 'context': '【宁波转运中心】 已发出 下一站 【上虞转运中心】', 'location': ''}, {'time': '2019-09-27 20:40:56', 'ftime': '2019-09-27 20:40:56', 'context': '【宁波转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 18:11:56', 'ftime': '2019-09-27 18:11:56', 'context': '【浙江省宁波市下应】 已发出 下一站 【宁波转运中心】', 'location': ''}, {'time': '2019-09-27 18:10:40', 'ftime': '2019-09-27 18:10:40', 'context': '【浙江省宁波市下应公司】 已收件 取件人: 黄忠辉 (15968469510)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:10:12', 'ftime': '2019-09-29 09:10:12', 'context': '[山东济宁公司中区开发区分部]进行派件扫描；派送业务员：赵福军；联系电话：15965478900', 'location': '山东济宁公司中区开发区分部'}, {'time': '2019-09-28 17:36:33', 'ftime': '2019-09-28 17:36:33', 'context': '[山东济宁公司]进行快件扫描，发往：山东济宁公司中区开发区分部', 'location': '山东济宁公司'}, {'time': '2019-09-28 17:32:16', 'ftime': '2019-09-28 17:32:16', 'context': '[山东济宁公司]到达目的地网点，快件很快进行派送', 'location': '山东济宁公司'}, {'time': '2019-09-28 05:59:16', 'ftime': '2019-09-28 05:59:16', 'context': '[山东济南分拨中心]从站点发出，本次转运目的地：山东济宁公司', 'location': '山东济南分拨中心'}, {'time': '2019-09-28 05:55:14', 'ftime': '2019-09-28 05:55:14', 'context': '[山东济南分拨中心]在分拨中心进行卸车扫描', 'location': '山东济南分拨中心'}, {'time': '2019-09-27 03:31:00', 'ftime': '2019-09-27 03:31:00', 'context': '[福建晋江分拨中心]进行装车扫描，发往：山东济南分拨中心', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 03:28:43', 'ftime': '2019-09-27 03:28:43', 'context': '[福建晋江分拨中心]在分拨中心进行称重扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 02:21:46', 'ftime': '2019-09-27 02:21:46', 'context': '[福建泉州公司]进行揽件扫描', 'location': '福建泉州公司'}, {'time': '2019-09-27 01:04:20', 'ftime': '2019-09-27 01:04:20', 'context': '[福建泉州公司]进行下级地点扫描，发往：山东济宁公司', 'location': '福建泉州公司'}, {'time': '2019-09-27 00:42:09', 'ftime': '2019-09-27 00:42:09', 'context': '[福建主城区公司泉州美泰淘宝服务部]进行揽件扫描', 'location': '福建主城区公司泉州美泰淘宝服务部'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.071824</v>
+        <v>0.073891</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.008574999999999999</v>
+        <v>0.011697</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:22:08', 'context': '查无结果', 'ftime': '2019-09-05 10:22:08'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-18 15:38:07', 'ftime': '2018-11-18 15:38:07', 'context': '订单已由便利店代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-18 11:19:59', 'ftime': '2018-11-18 11:19:59', 'context': '配送员开始配送，请您准备收货，配送员，沈宏伟，手机号，18951269481', 'location': None}, {'time': '2018-11-18 09:26:01', 'ftime': '2018-11-18 09:26:01', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-18 09:26:00', 'ftime': '2018-11-18 09:26:00', 'context': '货物已到达【淮安淮阴站】', 'location': None}, {'time': '2018-11-18 00:07:36', 'ftime': '2018-11-18 00:07:36', 'context': '货物已完成分拣，离开【宿迁分拨中心】', 'location': None}, {'time': '2018-11-18 00:04:44', 'ftime': '2018-11-18 00:04:44', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-11-17 18:44:02', 'ftime': '2018-11-17 18:44:02', 'context': '货物已完成分拣，离开【南京分拨中心】', 'location': None}, {'time': '2018-11-16 20:24:14', 'ftime': '2018-11-16 20:24:14', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-16 20:14:53', 'ftime': '2018-11-16 20:14:53', 'context': '货物已到达【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-16 20:06:17', 'ftime': '2018-11-16 20:06:17', 'context': '货物已到达【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-16 15:13:11', 'ftime': '2018-11-16 15:13:11', 'context': '货物已到达【泉州安踏磁灶仓驻场】', 'location': None}, {'time': '2018-11-16 15:11:52', 'ftime': '2018-11-16 15:11:52', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-16 15:11:52', 'ftime': '2018-11-16 15:11:52', 'context': '配送员洪晓露揽收完成', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.067785</v>
+        <v>0.072631</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.019863</v>
+        <v>0.009242999999999999</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'Y05', 'com': 'zhongtong', 'status': '200', 'state': '2', 'data': [{'time': '2019-09-28 16:19:19', 'ftime': '2019-09-28 16:19:19', 'context': '【广东省深圳市华茂公司】 失败签收录入 李俊强', 'location': None}, {'time': '2019-09-28 08:01:53', 'ftime': '2019-09-28 08:01:53', 'context': '【广东省深圳市华茂公司】 派件人: 李俊强 派件中 派件员电话17530403457', 'location': None}, {'time': '2019-09-26 02:13:26', 'ftime': '2019-09-26 02:13:26', 'context': '【广东省深圳市华茂公司】 已打包', 'location': None}, {'time': '2019-09-26 01:36:52', 'ftime': '2019-09-26 01:36:52', 'context': '【广东省深圳市华茂公司】 已收件', 'location': None}, {'time': '2019-09-25 16:34:10', 'ftime': '2019-09-25 16:34:10', 'context': '【广东省深圳市华茂公司】 取件人: 李松 已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:18:57', 'ftime': '2019-09-29 09:18:57', 'context': '【南宁市】 【南宁友爱分部】 的郭宗建（18776158027） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 08:46:47', 'ftime': '2019-09-29 08:46:47', 'context': '【南宁市】 快件已经到达 【南宁友爱分部】', 'location': ''}, {'time': '2019-09-28 22:15:39', 'ftime': '2019-09-28 22:15:39', 'context': '【南宁市】 快件离开 【南宁中转】 已发往 【南宁友爱分部】', 'location': ''}, {'time': '2019-09-28 21:14:36', 'ftime': '2019-09-28 21:14:36', 'context': '【南宁市】 快件已经到达 【南宁中转】', 'location': ''}, {'time': '2019-09-28 01:42:55', 'ftime': '2019-09-28 01:42:55', 'context': '【武汉市】 快件离开 【武汉中转部】 已发往 【南宁中转】', 'location': ''}, {'time': '2019-09-28 01:11:48', 'ftime': '2019-09-28 01:11:48', 'context': '【武汉市】 快件已经到达 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 21:17:05', 'ftime': '2019-09-27 21:17:05', 'context': '【荆州市】 快件离开 【荆州中转部】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 21:15:22', 'ftime': '2019-09-27 21:15:22', 'context': '【荆州市】 快件已经到达 【荆州中转部】', 'location': ''}, {'time': '2019-09-27 12:41:45', 'ftime': '2019-09-27 12:41:45', 'context': '【恩施土家族苗族自治州】 快件离开 【利川】 已发往 【南宁中转】', 'location': ''}, {'time': '2019-09-27 09:04:31', 'ftime': '2019-09-27 09:04:31', 'context': '【恩施土家族苗族自治州】 【利川】（0718-7281678） 的 牟艳军15337301195（15337301195） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.071052</v>
+        <v>0.069287</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010045</v>
+        <v>0.0091</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-20 19:10:32', 'ftime': '2018-11-20 19:10:32', 'context': '[昆明市]昆明市【昆明西山十三部】，快递驿站代收 已签收', 'location': None}, {'time': '2018-11-20 14:38:56', 'ftime': '2018-11-20 14:38:56', 'context': '[昆明市]昆明市【昆明西山十三部】，【李本仁18388070006】正在派件', 'location': None}, {'time': '2018-11-20 13:52:09', 'ftime': '2018-11-20 13:52:09', 'context': '[昆明市]到昆明市【昆明西山十三部】', 'location': None}, {'time': '2018-11-20 02:39:43', 'ftime': '2018-11-20 02:39:43', 'context': '[昆明市]昆明市【昆明转运中心】，正发往【昆明西山十三部】', 'location': None}, {'time': '2018-11-19 22:56:10', 'ftime': '2018-11-19 22:56:10', 'context': '[昆明市]到昆明市【昆明转运中心】', 'location': None}, {'time': '2018-11-17 21:31:48', 'ftime': '2018-11-17 21:31:48', 'context': '[杭州市]杭州市【杭州转运中心】，正发往【昆明转运中心】', 'location': None}, {'time': '2018-11-17 21:29:51', 'ftime': '2018-11-17 21:29:51', 'context': '[杭州市]到杭州市【杭州转运中心】', 'location': None}, {'time': '2018-11-17 20:06:56', 'ftime': '2018-11-17 20:06:56', 'context': '[杭州市]杭州市【江干五部】，正发往【杭州转运中心】', 'location': None}, {'time': '2018-11-17 19:54:59', 'ftime': '2018-11-17 19:54:59', 'context': '[杭州市]到杭州市【江干五部集货点】', 'location': None}, {'time': '2018-11-17 16:52:44', 'ftime': '2018-11-17 16:52:44', 'context': '[杭州市]杭州市【杭州小件X06-002】，【李先星/13486356185】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:20:52', 'ftime': '2019-09-29 09:20:52', 'context': '[黑龙江望奎县公司]到达目的地网点，快件很快进行派送', 'location': '黑龙江望奎县公司'}, {'time': '2019-09-28 13:58:11', 'ftime': '2019-09-28 13:58:11', 'context': '[黑龙江哈尔滨分拨中心]从站点发出，本次转运目的地：黑龙江望奎县公司', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-28 13:02:05', 'ftime': '2019-09-28 13:02:05', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行卸车扫描', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-27 03:06:58', 'ftime': '2019-09-27 03:06:58', 'context': '[山东潍坊分拨中心]进行装车扫描，发往：黑龙江哈尔滨分拨中心', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-27 03:04:35', 'ftime': '2019-09-27 03:04:35', 'context': '[山东潍坊分拨中心]在分拨中心进行卸车扫描', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-26 21:59:48', 'ftime': '2019-09-26 21:59:48', 'context': '[山东青岛分拨中心]进行装车扫描，发往：山东潍坊分拨中心', 'location': '山东青岛分拨中心'}, {'time': '2019-09-26 21:55:48', 'ftime': '2019-09-26 21:55:48', 'context': '[山东青岛分拨中心]在分拨中心进行称重扫描', 'location': '山东青岛分拨中心'}, {'time': '2019-09-26 18:00:03', 'ftime': '2019-09-26 18:00:03', 'context': '[山东黄岛区公司]进行下级地点扫描，发往：黑龙江哈尔滨分拨中心', 'location': '山东黄岛区公司'}, {'time': '2019-09-26 12:40:41', 'ftime': '2019-09-26 12:40:41', 'context': '[山东黄岛区公司]进行揽件扫描', 'location': '山东黄岛区公司'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.068147</v>
+        <v>0.07015299999999999</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.009575</v>
+        <v>0.048312</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-21 08:44:50', 'ftime': '2019-09-21 08:44:50', 'context': '客户签收人: 长胜小区丰巢柜 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：13511326773，投诉电话：0573-85636090', 'location': ''}, {'time': '2019-09-21 08:40:41', 'ftime': '2019-09-21 08:40:41', 'context': '快件已由长胜小区大门口旁丰巢智能柜丰巢柜代收，取件码已发送，请及时取件。', 'location': ''}, {'time': '2019-09-21 08:04:08', 'ftime': '2019-09-21 08:04:08', 'context': '【浙江省嘉兴市平湖市公司】 派件中 派件人: 洪梦琳 电话 13511326773 如有疑问，请联系：0573-85636090', 'location': ''}, {'time': '2019-09-21 06:51:49', 'ftime': '2019-09-21 06:51:49', 'context': '【浙江省嘉兴市平湖市公司】 已收入', 'location': ''}, {'time': '2019-09-20 20:50:32', 'ftime': '2019-09-20 20:50:32', 'context': '【嘉兴转运中心】 已发出 下一站 【浙江省嘉兴市平湖市】', 'location': ''}, {'time': '2019-09-20 20:45:28', 'ftime': '2019-09-20 20:45:28', 'context': '【嘉兴转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-20 05:11:51', 'ftime': '2019-09-20 05:11:51', 'context': '【济南转运中心】 已发出 下一站 【临海转运中心】', 'location': ''}, {'time': '2019-09-19 23:00:39', 'ftime': '2019-09-19 23:00:39', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 19:29:55', 'ftime': '2019-09-19 19:29:55', 'context': '【山东省聊城市】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-19 19:12:09', 'ftime': '2019-09-19 19:12:09', 'context': '【山东省聊城市公司】 已打包', 'location': ''}, {'time': '2019-09-19 15:56:15', 'ftime': '2019-09-19 15:56:15', 'context': '【山东省聊城市公司】 已收件 取件人: 郭清全 (15166553964)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-07 10:28:20', 'context': '查无结果', 'ftime': '2019-09-07 10:28:20'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.07377499999999999</v>
+        <v>0.066811</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009892</v>
+        <v>0.029502</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 10:22:09', 'context': '查无结果', 'ftime': '2019-09-15 10:22:09'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:28:20', 'context': '查无结果', 'ftime': '2019-09-24 10:28:20'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.066896</v>
+        <v>0.105721</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010584</v>
+        <v>0.019784</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-07 10:22:09', 'context': '查无结果', 'ftime': '2019-09-07 10:22:09'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-20 12:51:54', 'ftime': '2019-09-20 12:51:54', 'context': '客户签收人: 前台 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：18001223314，投诉电话：010－69492690', 'location': ''}, {'time': '2019-09-20 07:40:15', 'ftime': '2019-09-20 07:40:15', 'context': '【北京市顺义区空港B区公司】 派件中 派件人: 林平 电话 18001223314 如有疑问，请联系：010－69492690', 'location': ''}, {'time': '2019-09-20 00:51:56', 'ftime': '2019-09-20 00:51:56', 'context': '【北京市顺义区空港B区公司】 已收入', 'location': ''}, {'time': '2019-09-19 23:10:57', 'ftime': '2019-09-19 23:10:57', 'context': '【北京转运中心】 已发出 下一站 【北京市顺义区空港B区】', 'location': ''}, {'time': '2019-09-19 23:07:12', 'ftime': '2019-09-19 23:07:12', 'context': '【北京转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 00:26:55', 'ftime': '2019-09-19 00:26:55', 'context': '【杭州转运中心】 已发出 下一站 【北京转运中心】', 'location': ''}, {'time': '2019-09-19 00:23:59', 'ftime': '2019-09-19 00:23:59', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 00:08:32', 'ftime': '2019-09-19 00:08:32', 'context': '【浙江省杭州市钱江新城公司】 已收件 取件人: 童利森 (15858128688)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.062076</v>
+        <v>0.068777</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.014594</v>
+        <v>0.022673</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 10:22:09', 'context': '查无结果', 'ftime': '2019-09-06 10:22:09'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-08-31 10:28:20', 'context': '查无结果', 'ftime': '2019-08-31 10:28:20'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.067353</v>
+        <v>0.069414</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.037058</v>
+        <v>0.01025</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (1).xlsx
+++ b/data_excel/接口测试用例_ (1).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:28:19', 'context': '查无结果', 'ftime': '2019-09-03 10:28:19'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:10:48', 'context': '查无结果', 'ftime': '2019-09-09 16:10:48'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.072417</v>
+        <v>0.078982</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.00924</v>
+        <v>0.013591</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:10:12', 'ftime': '2019-09-29 09:10:12', 'context': '[山东济宁公司中区开发区分部]进行派件扫描；派送业务员：赵福军；联系电话：15965478900', 'location': '山东济宁公司中区开发区分部'}, {'time': '2019-09-28 17:36:33', 'ftime': '2019-09-28 17:36:33', 'context': '[山东济宁公司]进行快件扫描，发往：山东济宁公司中区开发区分部', 'location': '山东济宁公司'}, {'time': '2019-09-28 17:32:16', 'ftime': '2019-09-28 17:32:16', 'context': '[山东济宁公司]到达目的地网点，快件很快进行派送', 'location': '山东济宁公司'}, {'time': '2019-09-28 05:59:16', 'ftime': '2019-09-28 05:59:16', 'context': '[山东济南分拨中心]从站点发出，本次转运目的地：山东济宁公司', 'location': '山东济南分拨中心'}, {'time': '2019-09-28 05:55:14', 'ftime': '2019-09-28 05:55:14', 'context': '[山东济南分拨中心]在分拨中心进行卸车扫描', 'location': '山东济南分拨中心'}, {'time': '2019-09-27 03:31:00', 'ftime': '2019-09-27 03:31:00', 'context': '[福建晋江分拨中心]进行装车扫描，发往：山东济南分拨中心', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 03:28:43', 'ftime': '2019-09-27 03:28:43', 'context': '[福建晋江分拨中心]在分拨中心进行称重扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 02:21:46', 'ftime': '2019-09-27 02:21:46', 'context': '[福建泉州公司]进行揽件扫描', 'location': '福建泉州公司'}, {'time': '2019-09-27 01:04:20', 'ftime': '2019-09-27 01:04:20', 'context': '[福建泉州公司]进行下级地点扫描，发往：山东济宁公司', 'location': '福建泉州公司'}, {'time': '2019-09-27 00:42:09', 'ftime': '2019-09-27 00:42:09', 'context': '[福建主城区公司泉州美泰淘宝服务部]进行揽件扫描', 'location': '福建主城区公司泉州美泰淘宝服务部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-26 00:33:27', 'ftime': '2019-09-26 00:33:27', 'context': '【西安市】 快件离开 【西安中转】 已发往 【银川中转部】', 'location': None}, {'time': '2019-09-26 00:32:18', 'ftime': '2019-09-26 00:32:18', 'context': '【西安市】 快件已经到达 【西安中转】', 'location': None}, {'time': '2019-09-25 19:25:53', 'ftime': '2019-09-25 19:25:53', 'context': '【咸阳市】 快件离开 【咸阳】 已发往 【西安中转】', 'location': None}, {'time': '2019-09-25 18:54:16', 'ftime': '2019-09-25 18:54:16', 'context': '【咸阳市】 【咸阳】（029-87962368） 的 美邦（15319073050） 已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.073891</v>
+        <v>0.068453</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.011697</v>
+        <v>0.010325</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-18 15:38:07', 'ftime': '2018-11-18 15:38:07', 'context': '订单已由便利店代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-18 11:19:59', 'ftime': '2018-11-18 11:19:59', 'context': '配送员开始配送，请您准备收货，配送员，沈宏伟，手机号，18951269481', 'location': None}, {'time': '2018-11-18 09:26:01', 'ftime': '2018-11-18 09:26:01', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-18 09:26:00', 'ftime': '2018-11-18 09:26:00', 'context': '货物已到达【淮安淮阴站】', 'location': None}, {'time': '2018-11-18 00:07:36', 'ftime': '2018-11-18 00:07:36', 'context': '货物已完成分拣，离开【宿迁分拨中心】', 'location': None}, {'time': '2018-11-18 00:04:44', 'ftime': '2018-11-18 00:04:44', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-11-17 18:44:02', 'ftime': '2018-11-17 18:44:02', 'context': '货物已完成分拣，离开【南京分拨中心】', 'location': None}, {'time': '2018-11-16 20:24:14', 'ftime': '2018-11-16 20:24:14', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-16 20:14:53', 'ftime': '2018-11-16 20:14:53', 'context': '货物已到达【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-16 20:06:17', 'ftime': '2018-11-16 20:06:17', 'context': '货物已到达【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-16 15:13:11', 'ftime': '2018-11-16 15:13:11', 'context': '货物已到达【泉州安踏磁灶仓驻场】', 'location': None}, {'time': '2018-11-16 15:11:52', 'ftime': '2018-11-16 15:11:52', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-16 15:11:52', 'ftime': '2018-11-16 15:11:52', 'context': '配送员洪晓露揽收完成', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:58:21', 'ftime': '2019-09-29 09:58:21', 'context': '[东营市]到达【邮政广饶县稻庄邮电】', 'location': None}, {'time': '2019-09-29 09:16:25', 'ftime': '2019-09-29 09:16:25', 'context': '[东营市]离开【广饶处理】,下一站【邮政广饶县稻庄邮电】', 'location': None}, {'time': '2019-09-29 04:42:28', 'ftime': '2019-09-29 04:42:28', 'context': '[东营市]到达【东营中心】', 'location': None}, {'time': '2019-09-29 01:28:33', 'ftime': '2019-09-29 01:28:33', 'context': '[济南市]离开【济南航空邮件处理中心】,下一站【东营中心】（经转）', 'location': None}, {'time': '2019-09-28 23:27:04', 'ftime': '2019-09-28 23:27:04', 'context': '[济南市]到达【济南航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-09-28 21:54:57', 'ftime': '2019-09-28 21:54:57', 'context': '[淄博市]离开【淄博处理中心】,下一站【济南航空邮件处理中心】', 'location': None}, {'time': '2019-09-28 18:44:27', 'ftime': '2019-09-28 18:44:27', 'context': '[淄博市]到达【淄博处理中心】', 'location': None}, {'time': '2019-09-28 18:17:53', 'ftime': '2019-09-28 18:17:53', 'context': '离开【淄博市金桥揽投部】,下一站【淄博中心】', 'location': None}, {'time': '2019-09-28 14:49:03', 'ftime': '2019-09-28 14:49:03', 'context': '【淄博市金桥揽投部】已收件,揽投员:周作平,电话:18853352353', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.072631</v>
+        <v>0.06848700000000001</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009242999999999999</v>
+        <v>0.009205</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:18:57', 'ftime': '2019-09-29 09:18:57', 'context': '【南宁市】 【南宁友爱分部】 的郭宗建（18776158027） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 08:46:47', 'ftime': '2019-09-29 08:46:47', 'context': '【南宁市】 快件已经到达 【南宁友爱分部】', 'location': ''}, {'time': '2019-09-28 22:15:39', 'ftime': '2019-09-28 22:15:39', 'context': '【南宁市】 快件离开 【南宁中转】 已发往 【南宁友爱分部】', 'location': ''}, {'time': '2019-09-28 21:14:36', 'ftime': '2019-09-28 21:14:36', 'context': '【南宁市】 快件已经到达 【南宁中转】', 'location': ''}, {'time': '2019-09-28 01:42:55', 'ftime': '2019-09-28 01:42:55', 'context': '【武汉市】 快件离开 【武汉中转部】 已发往 【南宁中转】', 'location': ''}, {'time': '2019-09-28 01:11:48', 'ftime': '2019-09-28 01:11:48', 'context': '【武汉市】 快件已经到达 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 21:17:05', 'ftime': '2019-09-27 21:17:05', 'context': '【荆州市】 快件离开 【荆州中转部】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 21:15:22', 'ftime': '2019-09-27 21:15:22', 'context': '【荆州市】 快件已经到达 【荆州中转部】', 'location': ''}, {'time': '2019-09-27 12:41:45', 'ftime': '2019-09-27 12:41:45', 'context': '【恩施土家族苗族自治州】 快件离开 【利川】 已发往 【南宁中转】', 'location': ''}, {'time': '2019-09-27 09:04:31', 'ftime': '2019-09-27 09:04:31', 'context': '【恩施土家族苗族自治州】 【利川】（0718-7281678） 的 牟艳军15337301195（15337301195） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 16:10:49', 'context': '查无结果', 'ftime': '2019-09-29 16:10:49'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.069287</v>
+        <v>0.06701500000000001</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.0091</v>
+        <v>0.009409000000000001</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:20:52', 'ftime': '2019-09-29 09:20:52', 'context': '[黑龙江望奎县公司]到达目的地网点，快件很快进行派送', 'location': '黑龙江望奎县公司'}, {'time': '2019-09-28 13:58:11', 'ftime': '2019-09-28 13:58:11', 'context': '[黑龙江哈尔滨分拨中心]从站点发出，本次转运目的地：黑龙江望奎县公司', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-28 13:02:05', 'ftime': '2019-09-28 13:02:05', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行卸车扫描', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-27 03:06:58', 'ftime': '2019-09-27 03:06:58', 'context': '[山东潍坊分拨中心]进行装车扫描，发往：黑龙江哈尔滨分拨中心', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-27 03:04:35', 'ftime': '2019-09-27 03:04:35', 'context': '[山东潍坊分拨中心]在分拨中心进行卸车扫描', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-26 21:59:48', 'ftime': '2019-09-26 21:59:48', 'context': '[山东青岛分拨中心]进行装车扫描，发往：山东潍坊分拨中心', 'location': '山东青岛分拨中心'}, {'time': '2019-09-26 21:55:48', 'ftime': '2019-09-26 21:55:48', 'context': '[山东青岛分拨中心]在分拨中心进行称重扫描', 'location': '山东青岛分拨中心'}, {'time': '2019-09-26 18:00:03', 'ftime': '2019-09-26 18:00:03', 'context': '[山东黄岛区公司]进行下级地点扫描，发往：黑龙江哈尔滨分拨中心', 'location': '山东黄岛区公司'}, {'time': '2019-09-26 12:40:41', 'ftime': '2019-09-26 12:40:41', 'context': '[山东黄岛区公司]进行揽件扫描', 'location': '山东黄岛区公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'G40', 'com': 'zhongtong', 'status': '200', 'state': '4', 'data': [{'time': '2019-09-29 12:15:01', 'ftime': '2019-09-29 12:15:01', 'context': '[金华市]派件送达【百世邻里】退货仓库，请前往九州西路888退货仓库领取您的包裹，联系电话：18557902741', 'location': '金华市'}, {'time': '2019-09-29 12:12:06', 'ftime': '2019-09-29 12:12:06', 'context': '[金华市]金华市【永康石柱镇分部】，【张亚/18557902741】正在派件', 'location': '金华市'}, {'time': '2019-09-29 01:11:15', 'ftime': '2019-09-29 01:11:15', 'context': '[金华市]金华市【金华转运中心】，正发往【永康石柱镇分部】', 'location': '金华市'}, {'time': '2019-09-28 23:08:40', 'ftime': '2019-09-28 23:08:40', 'context': '[金华市]到金华市【金华转运中心】', 'location': '金华市'}, {'time': '2019-09-28 03:08:03', 'ftime': '2019-09-28 03:08:03', 'context': '[广州市]广州市【广州黄埔转运中心】，正发往【金华转运中心】', 'location': '广州市'}, {'time': '2019-09-28 00:55:00', 'ftime': '2019-09-28 00:55:00', 'context': '[广州市]到广州市【广州黄埔转运中心】', 'location': '广州市'}, {'time': '2019-09-27 22:07:27', 'ftime': '2019-09-27 22:07:27', 'context': '[广州市]广州市【广州天河龙洞站】，正发往【广州黄埔转运中心】', 'location': '广州市'}, {'time': '2019-09-27 21:52:07', 'ftime': '2019-09-27 21:52:07', 'context': '[广州市]广州市【广州天河龙洞站】，【李艳/18565466067】已揽收', 'location': '广州市'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.07015299999999999</v>
+        <v>0.06937</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.048312</v>
+        <v>0.009176</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-07 10:28:20', 'context': '查无结果', 'ftime': '2019-09-07 10:28:20'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 08:56:06', 'ftime': '2019-09-28 08:56:06', 'context': '【京山乡镇站】的快递员：【杨峰】 电话：【18971849356】正在为您派件，请您保持电话畅通~', 'location': '湖北省-荆门市-京山乡镇站'}, {'time': '2019-09-28 08:48:19', 'ftime': '2019-09-28 08:48:19', 'context': '快件在【京山乡镇站】已操作进站扫描', 'location': '湖北省-荆门市-京山乡镇站'}, {'time': '2019-09-28 00:54:52', 'ftime': '2019-09-28 00:54:52', 'context': '快件已装车完成，下一站：【荆门京山站】', 'location': '湖北省-鄂州市-湖北鄂州分拨中心'}, {'time': '2019-09-27 19:20:46', 'ftime': '2019-09-27 19:20:46', 'context': '快件在【湖北鄂州分拨中心】已操作进站扫描', 'location': '湖北省-鄂州市-湖北鄂州分拨中心'}, {'time': '2019-09-27 19:02:45', 'ftime': '2019-09-27 19:02:45', 'context': '物流订单已创建', 'location': '湖北省-鄂州市-湖北鄂州分拨中心'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.066811</v>
+        <v>0.070246</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.029502</v>
+        <v>0.009575</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:28:20', 'context': '查无结果', 'ftime': '2019-09-24 10:28:20'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 10:10:13', 'ftime': '2019-09-29 10:10:13', 'context': '【彭州站点】的【杨鹏15680727686】正在派件', 'location': ''}, {'time': '2019-09-29 08:36:27', 'ftime': '2019-09-29 08:36:27', 'context': '快件到达【彭州站点】', 'location': ''}, {'time': '2019-09-28 20:42:27', 'ftime': '2019-09-28 20:42:27', 'context': '快件由【西南成都枢纽】发往【彭州站点】', 'location': ''}, {'time': '2019-09-28 20:26:02', 'ftime': '2019-09-28 20:26:02', 'context': '快件到达【西南成都枢纽】', 'location': ''}, {'time': '2019-09-27 04:18:45', 'ftime': '2019-09-27 04:18:45', 'context': '快件由【福建泉州转运】发往【西南成都枢纽】', 'location': ''}, {'time': '2019-09-27 01:55:13', 'ftime': '2019-09-27 01:55:13', 'context': '快件到达【福建泉州转运】', 'location': ''}, {'time': '2019-09-26 21:19:50', 'ftime': '2019-09-26 21:19:50', 'context': '【南安三部】的描扫员【三部客服】已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.105721</v>
+        <v>0.071962</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.019784</v>
+        <v>0.009733</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-20 12:51:54', 'ftime': '2019-09-20 12:51:54', 'context': '客户签收人: 前台 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：18001223314，投诉电话：010－69492690', 'location': ''}, {'time': '2019-09-20 07:40:15', 'ftime': '2019-09-20 07:40:15', 'context': '【北京市顺义区空港B区公司】 派件中 派件人: 林平 电话 18001223314 如有疑问，请联系：010－69492690', 'location': ''}, {'time': '2019-09-20 00:51:56', 'ftime': '2019-09-20 00:51:56', 'context': '【北京市顺义区空港B区公司】 已收入', 'location': ''}, {'time': '2019-09-19 23:10:57', 'ftime': '2019-09-19 23:10:57', 'context': '【北京转运中心】 已发出 下一站 【北京市顺义区空港B区】', 'location': ''}, {'time': '2019-09-19 23:07:12', 'ftime': '2019-09-19 23:07:12', 'context': '【北京转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 00:26:55', 'ftime': '2019-09-19 00:26:55', 'context': '【杭州转运中心】 已发出 下一站 【北京转运中心】', 'location': ''}, {'time': '2019-09-19 00:23:59', 'ftime': '2019-09-19 00:23:59', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 00:08:32', 'ftime': '2019-09-19 00:08:32', 'context': '【浙江省杭州市钱江新城公司】 已收件 取件人: 童利森 (15858128688)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:56:45', 'ftime': '2019-09-28 20:56:45', 'context': '[安徽合肥分拨中心]从站点发出，本次转运目的地：安徽合肥庐阳区公司', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-28 20:35:49', 'ftime': '2019-09-28 20:35:49', 'context': '[安徽合肥分拨中心]在分拨中心进行称重扫描', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-28 19:22:57', 'ftime': '2019-09-28 19:22:57', 'context': '[安徽合肥经济开发区公司]进行揽件扫描', 'location': '安徽合肥经济开发区公司'}, {'time': '2019-09-28 19:22:52', 'ftime': '2019-09-28 19:22:52', 'context': '[安徽合肥经济开发区公司]到达目的地网点，快件很快进行派送', 'location': '安徽合肥经济开发区公司'}, {'time': '2019-09-28 19:17:17', 'ftime': '2019-09-28 19:17:17', 'context': '[安徽合肥经济开发区公司]进行下级地点扫描，发往：安徽合肥网点包', 'location': '安徽合肥经济开发区公司'}, {'time': '2019-09-28 17:20:16', 'ftime': '2019-09-28 17:20:16', 'context': '[安徽合肥经济开发区公司滨湖新区分部]进行揽件扫描', 'location': '安徽合肥经济开发区公司滨湖新区分部'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.068777</v>
+        <v>0.070395</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.022673</v>
+        <v>0.016881</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-08-31 10:28:20', 'context': '查无结果', 'ftime': '2019-08-31 10:28:20'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 11:23:51', 'ftime': '2019-09-29 11:23:51', 'context': '派件已【签收】,签收人是【图片签收】签收网点是【常平】', 'location': ''}, {'time': '2019-09-29 11:23:51', 'ftime': '2019-09-29 11:23:51', 'context': '温馨提示：该货物可查签收图片查看图片', 'location': ''}, {'time': '2019-09-29 08:46:20', 'ftime': '2019-09-29 08:46:20', 'context': '【常平】的【刘俊豪】正在派件', 'location': ''}, {'time': '2019-09-29 08:10:08', 'ftime': '2019-09-29 08:10:08', 'context': '快件到达【常平】', 'location': ''}, {'time': '2019-09-29 02:14:48', 'ftime': '2019-09-29 02:14:48', 'context': '快件在【虎门分拨中心】装车,正发往【常平】', 'location': ''}, {'time': '2019-09-29 01:46:48', 'ftime': '2019-09-29 01:46:48', 'context': '快件到达【虎门分拨中心】', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.069414</v>
+        <v>0.071072</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.01025</v>
+        <v>0.009547</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (1).xlsx
+++ b/data_excel/接口测试用例_ (1).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -40,34 +40,6 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -127,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -486,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -501,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -543,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -608,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:10:48', 'context': '查无结果', 'ftime': '2019-09-09 16:10:48'}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.078982</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 14:36:24', 'ftime': '2019-10-08 14:36:24', 'context': '【三明市】 快件已由【百世邻里的嵩口快递站】代签收, 如有问题请电联（13960516263 / 18250560335）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-10-08 10:08:55', 'ftime': '2019-10-08 10:08:55', 'context': '【三明市】 【三明清流】 的高平（13960516263） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-08 10:07:29', 'ftime': '2019-10-08 10:07:29', 'context': '【三明市】 快件已经到达 【三明清流】', 'location': ''}, {'time': '2019-10-07 19:18:41', 'ftime': '2019-10-07 19:18:41', 'context': '【三明市】 快件离开 【三明中转】 已发往 【三明清流】', 'location': ''}, {'time': '2019-10-07 18:34:22', 'ftime': '2019-10-07 18:34:22', 'context': '【三明市】 快件已经到达 【三明中转】', 'location': ''}, {'time': '2019-10-07 11:10:15', 'ftime': '2019-10-07 11:10:15', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【三明中转】', 'location': ''}, {'time': '2019-10-07 11:09:02', 'ftime': '2019-10-07 11:09:02', 'context': '【泉州市】 快件已经到达 【泉州中转部】', 'location': ''}, {'time': '2019-10-06 15:01:44', 'ftime': '2019-10-06 15:01:44', 'context': '【杭州市】 快件离开 【桐庐】 已发往 【泉州中转部】', 'location': ''}, {'time': '2019-10-06 14:59:46', 'ftime': '2019-10-06 14:59:46', 'context': '【杭州市】 【桐庐】（0571-64622517、0571-64636577） 的 米友圈小件（15067144868） 已揽收', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.081527</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -669,18 +666,23 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.013591</v>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+        </is>
       </c>
       <c r="J3" s="3" t="n">
+        <v>0.01195</v>
+      </c>
+      <c r="K3" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -723,18 +725,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-26 00:33:27', 'ftime': '2019-09-26 00:33:27', 'context': '【西安市】 快件离开 【西安中转】 已发往 【银川中转部】', 'location': None}, {'time': '2019-09-26 00:32:18', 'ftime': '2019-09-26 00:32:18', 'context': '【西安市】 快件已经到达 【西安中转】', 'location': None}, {'time': '2019-09-25 19:25:53', 'ftime': '2019-09-25 19:25:53', 'context': '【咸阳市】 快件离开 【咸阳】 已发往 【西安中转】', 'location': None}, {'time': '2019-09-25 18:54:16', 'ftime': '2019-09-25 18:54:16', 'context': '【咸阳市】 【咸阳】（029-87962368） 的 美邦（15319073050） 已揽收', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.068453</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 16:34:43', 'context': '查无结果', 'ftime': '2019-09-10 16:34:43'}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.06766</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -775,22 +782,15 @@
       <c r="G5" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.010325</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -829,18 +829,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:58:21', 'ftime': '2019-09-29 09:58:21', 'context': '[东营市]到达【邮政广饶县稻庄邮电】', 'location': None}, {'time': '2019-09-29 09:16:25', 'ftime': '2019-09-29 09:16:25', 'context': '[东营市]离开【广饶处理】,下一站【邮政广饶县稻庄邮电】', 'location': None}, {'time': '2019-09-29 04:42:28', 'ftime': '2019-09-29 04:42:28', 'context': '[东营市]到达【东营中心】', 'location': None}, {'time': '2019-09-29 01:28:33', 'ftime': '2019-09-29 01:28:33', 'context': '[济南市]离开【济南航空邮件处理中心】,下一站【东营中心】（经转）', 'location': None}, {'time': '2019-09-28 23:27:04', 'ftime': '2019-09-28 23:27:04', 'context': '[济南市]到达【济南航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-09-28 21:54:57', 'ftime': '2019-09-28 21:54:57', 'context': '[淄博市]离开【淄博处理中心】,下一站【济南航空邮件处理中心】', 'location': None}, {'time': '2019-09-28 18:44:27', 'ftime': '2019-09-28 18:44:27', 'context': '[淄博市]到达【淄博处理中心】', 'location': None}, {'time': '2019-09-28 18:17:53', 'ftime': '2019-09-28 18:17:53', 'context': '离开【淄博市金桥揽投部】,下一站【淄博中心】', 'location': None}, {'time': '2019-09-28 14:49:03', 'ftime': '2019-09-28 14:49:03', 'context': '【淄博市金桥揽投部】已收件,揽投员:周作平,电话:18853352353', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.06848700000000001</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'D01', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-06 16:15:06', 'ftime': '2019-10-06 16:15:06', 'context': '已签收,收发室,投递员:潘志刚w,电话:17731923458', 'location': None}, {'time': '2019-10-06 11:20:01', 'ftime': '2019-10-06 11:20:01', 'context': '【清河城区】安排投递,投递员:潘志刚w,电话:17731923458', 'location': None}, {'time': '2019-10-06 08:46:02', 'ftime': '2019-10-06 08:46:02', 'context': '到达【清河城区】（经转）', 'location': None}, {'time': '2019-10-06 05:22:11', 'ftime': '2019-10-06 05:22:11', 'context': '离开【邢台网路运营中心】，下一站【清河城区】（经转）', 'location': None}, {'time': '2019-10-05 20:38:36', 'ftime': '2019-10-05 20:38:36', 'context': '到达【邢台网路运营中心】（经转）', 'location': None}, {'time': '2019-10-05 18:30:58', 'ftime': '2019-10-05 18:30:58', 'context': '离开【石家中心】，下一站【邢台网路运营中心】（经转）', 'location': None}, {'time': '2019-10-05 09:02:02', 'ftime': '2019-10-05 09:02:02', 'context': '到达【石家中心】（经转）', 'location': None}, {'time': '2019-10-04 07:32:04', 'ftime': '2019-10-04 07:32:04', 'context': '离开【南昌中心】，下一站【石家中心】（经转）', 'location': None}, {'time': '2019-10-03 22:00:53', 'ftime': '2019-10-03 22:00:53', 'context': '到达【南昌中心】（经转）', 'location': None}, {'time': '2019-10-03 20:15:04', 'ftime': '2019-10-03 20:15:04', 'context': '离开【奉新中心】，下一站【南昌中心】（经转）', 'location': None}, {'time': '2019-10-03 19:38:42', 'ftime': '2019-10-03 19:38:42', 'context': '到达【奉新中心】（经转）', 'location': None}, {'time': '2019-10-03 19:37:59', 'ftime': '2019-10-03 19:37:59', 'context': '离开【大客户中心】，下一站【奉新中心】', 'location': None}, {'time': '2019-10-03 18:55:08', 'ftime': '2019-10-03 18:55:08', 'context': '【大客户中心】已收件,揽投员:赵昌根', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.07012599999999999</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -881,22 +886,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.009205</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -935,18 +933,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 16:10:49', 'context': '查无结果', 'ftime': '2019-09-29 16:10:49'}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.06701500000000001</v>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 08:56:12', 'ftime': '2019-10-07 08:56:12', 'context': '[广东广州白云区横滘公司]快件已被 圆通 代签收如有问题请联系张世广【15099983227】。', 'location': None}, {'time': '2019-10-07 08:33:35', 'ftime': '2019-10-07 08:33:35', 'context': '[广东广州白云区横滘公司]进行派件扫描；派送业务员：张世广；联系电话：15099983227', 'location': None}, {'time': '2019-10-06 19:18:25', 'ftime': '2019-10-06 19:18:25', 'context': '[广东广州分拨中心]从站点发出，本次转运目的地：广东广州白云区横滘公司', 'location': None}, {'time': '2019-10-06 19:17:28', 'ftime': '2019-10-06 19:17:28', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-04 22:05:19', 'ftime': '2019-10-04 22:05:19', 'context': '[内蒙古呼和浩特分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-04 19:01:18', 'ftime': '2019-10-04 19:01:18', 'context': '[内蒙主城区公司土默特左旗服务部]进行发出扫描，发往：内蒙古呼和浩特分拨中心', 'location': None}, {'time': '2019-10-04 18:56:32', 'ftime': '2019-10-04 18:56:32', 'context': '[内蒙主城区公司土默特左旗服务部]进行揽件扫描', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -987,22 +990,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.009409000000000001</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1041,18 +1037,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'G40', 'com': 'zhongtong', 'status': '200', 'state': '4', 'data': [{'time': '2019-09-29 12:15:01', 'ftime': '2019-09-29 12:15:01', 'context': '[金华市]派件送达【百世邻里】退货仓库，请前往九州西路888退货仓库领取您的包裹，联系电话：18557902741', 'location': '金华市'}, {'time': '2019-09-29 12:12:06', 'ftime': '2019-09-29 12:12:06', 'context': '[金华市]金华市【永康石柱镇分部】，【张亚/18557902741】正在派件', 'location': '金华市'}, {'time': '2019-09-29 01:11:15', 'ftime': '2019-09-29 01:11:15', 'context': '[金华市]金华市【金华转运中心】，正发往【永康石柱镇分部】', 'location': '金华市'}, {'time': '2019-09-28 23:08:40', 'ftime': '2019-09-28 23:08:40', 'context': '[金华市]到金华市【金华转运中心】', 'location': '金华市'}, {'time': '2019-09-28 03:08:03', 'ftime': '2019-09-28 03:08:03', 'context': '[广州市]广州市【广州黄埔转运中心】，正发往【金华转运中心】', 'location': '广州市'}, {'time': '2019-09-28 00:55:00', 'ftime': '2019-09-28 00:55:00', 'context': '[广州市]到广州市【广州黄埔转运中心】', 'location': '广州市'}, {'time': '2019-09-27 22:07:27', 'ftime': '2019-09-27 22:07:27', 'context': '[广州市]广州市【广州天河龙洞站】，正发往【广州黄埔转运中心】', 'location': '广州市'}, {'time': '2019-09-27 21:52:07', 'ftime': '2019-09-27 21:52:07', 'context': '[广州市]广州市【广州天河龙洞站】，【李艳/18565466067】已揽收', 'location': '广州市'}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.06937</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 15:13:51', 'ftime': '2019-10-08 15:13:51', 'context': '[辽宁阜新公司阜蒙县乡镇分部]快件已被 12354000031 代签收如有问题请联系季明全【15904229937】。', 'location': None}, {'time': '2019-10-08 08:59:02', 'ftime': '2019-10-08 08:59:02', 'context': '[辽宁阜新公司阜蒙县乡镇分部]进行派件扫描；派送业务员：季明全；联系电话：15904229937', 'location': None}, {'time': '2019-10-07 14:12:59', 'ftime': '2019-10-07 14:12:59', 'context': '[辽宁阜新公司]进行快件扫描，发往：辽宁阜新公司阜蒙县乡镇分部', 'location': None}, {'time': '2019-10-07 04:54:20', 'ftime': '2019-10-07 04:54:20', 'context': '[辽宁盘锦分拨中心]从站点发出，本次转运目的地：辽宁阜新公司', 'location': None}, {'time': '2019-10-07 03:14:27', 'ftime': '2019-10-07 03:14:27', 'context': '[辽宁盘锦分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-10-05 21:06:45', 'ftime': '2019-10-05 21:06:45', 'context': '[浙江义乌分拨中心]进行装车扫描，发往：辽宁盘锦分拨中心', 'location': None}, {'time': '2019-10-05 21:04:30', 'ftime': '2019-10-05 21:04:30', 'context': '[浙江义乌分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-05 20:02:51', 'ftime': '2019-10-05 20:02:51', 'context': '[浙江义乌山口公司]进行下级地点扫描，发往：辽宁盘锦分拨中心', 'location': None}, {'time': '2019-10-05 19:59:57', 'ftime': '2019-10-05 19:59:57', 'context': '[浙江义乌山口公司]进行揽件扫描', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.07444199999999999</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1093,22 +1094,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.009176</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1156,18 +1150,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 08:56:06', 'ftime': '2019-09-28 08:56:06', 'context': '【京山乡镇站】的快递员：【杨峰】 电话：【18971849356】正在为您派件，请您保持电话畅通~', 'location': '湖北省-荆门市-京山乡镇站'}, {'time': '2019-09-28 08:48:19', 'ftime': '2019-09-28 08:48:19', 'context': '快件在【京山乡镇站】已操作进站扫描', 'location': '湖北省-荆门市-京山乡镇站'}, {'time': '2019-09-28 00:54:52', 'ftime': '2019-09-28 00:54:52', 'context': '快件已装车完成，下一站：【荆门京山站】', 'location': '湖北省-鄂州市-湖北鄂州分拨中心'}, {'time': '2019-09-27 19:20:46', 'ftime': '2019-09-27 19:20:46', 'context': '快件在【湖北鄂州分拨中心】已操作进站扫描', 'location': '湖北省-鄂州市-湖北鄂州分拨中心'}, {'time': '2019-09-27 19:02:45', 'ftime': '2019-09-27 19:02:45', 'context': '物流订单已创建', 'location': '湖北省-鄂州市-湖北鄂州分拨中心'}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.070246</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 13:34:19', 'ftime': '2019-10-08 13:34:19', 'context': '[广西桂林公司铁西分部]快件已被 速递易 代签收如有问题请联系谢恩维【17774715419】。', 'location': None}, {'time': '2019-10-08 13:07:19', 'ftime': '2019-10-08 13:07:19', 'context': '[广西桂林公司铁西分部]进行派件扫描；派送业务员：谢恩维；联系电话：17774715419', 'location': None}, {'time': '2019-10-08 12:08:05', 'ftime': '2019-10-08 12:08:05', 'context': '[广西桂林公司铁西分部]到达目的地网点，快件很快进行派送', 'location': None}, {'time': '2019-10-08 09:31:16', 'ftime': '2019-10-08 09:31:16', 'context': '[广西桂林公司]进行快件扫描，发往：广西桂林公司铁西分部', 'location': None}, {'time': '2019-10-07 11:21:36', 'ftime': '2019-10-07 11:21:36', 'context': '[湖南长沙分拨中心]从站点发出，本次转运目的地：广西桂林公司', 'location': None}, {'time': '2019-10-07 11:17:45', 'ftime': '2019-10-07 11:17:45', 'context': '[湖南长沙分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-10-07 02:51:41', 'ftime': '2019-10-07 02:51:41', 'context': '[湖北武汉分拨中心]进行装车扫描，发往：湖南长沙分拨中心', 'location': None}, {'time': '2019-10-07 02:42:19', 'ftime': '2019-10-07 02:42:19', 'context': '[湖北武汉分拨中心]进行中转集包扫描，发往：广西桂林公司', 'location': None}, {'time': '2019-10-07 02:18:23', 'ftime': '2019-10-07 02:18:23', 'context': '[湖北武汉分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-06 20:55:27', 'ftime': '2019-10-06 20:55:27', 'context': '[湖北主城区公司武汉汉阳区摩尔城服务部]进行揽件扫描', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.071978</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1217,22 +1216,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.009575</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1280,18 +1272,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 10:10:13', 'ftime': '2019-09-29 10:10:13', 'context': '【彭州站点】的【杨鹏15680727686】正在派件', 'location': ''}, {'time': '2019-09-29 08:36:27', 'ftime': '2019-09-29 08:36:27', 'context': '快件到达【彭州站点】', 'location': ''}, {'time': '2019-09-28 20:42:27', 'ftime': '2019-09-28 20:42:27', 'context': '快件由【西南成都枢纽】发往【彭州站点】', 'location': ''}, {'time': '2019-09-28 20:26:02', 'ftime': '2019-09-28 20:26:02', 'context': '快件到达【西南成都枢纽】', 'location': ''}, {'time': '2019-09-27 04:18:45', 'ftime': '2019-09-27 04:18:45', 'context': '快件由【福建泉州转运】发往【西南成都枢纽】', 'location': ''}, {'time': '2019-09-27 01:55:13', 'ftime': '2019-09-27 01:55:13', 'context': '快件到达【福建泉州转运】', 'location': ''}, {'time': '2019-09-26 21:19:50', 'ftime': '2019-09-26 21:19:50', 'context': '【南安三部】的描扫员【三部客服】已收件', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.071962</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-04 16:34:43', 'context': '查无结果', 'ftime': '2019-10-04 16:34:43'}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.100069</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1332,22 +1329,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.009733</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1386,18 +1376,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:56:45', 'ftime': '2019-09-28 20:56:45', 'context': '[安徽合肥分拨中心]从站点发出，本次转运目的地：安徽合肥庐阳区公司', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-28 20:35:49', 'ftime': '2019-09-28 20:35:49', 'context': '[安徽合肥分拨中心]在分拨中心进行称重扫描', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-28 19:22:57', 'ftime': '2019-09-28 19:22:57', 'context': '[安徽合肥经济开发区公司]进行揽件扫描', 'location': '安徽合肥经济开发区公司'}, {'time': '2019-09-28 19:22:52', 'ftime': '2019-09-28 19:22:52', 'context': '[安徽合肥经济开发区公司]到达目的地网点，快件很快进行派送', 'location': '安徽合肥经济开发区公司'}, {'time': '2019-09-28 19:17:17', 'ftime': '2019-09-28 19:17:17', 'context': '[安徽合肥经济开发区公司]进行下级地点扫描，发往：安徽合肥网点包', 'location': '安徽合肥经济开发区公司'}, {'time': '2019-09-28 17:20:16', 'ftime': '2019-09-28 17:20:16', 'context': '[安徽合肥经济开发区公司滨湖新区分部]进行揽件扫描', 'location': '安徽合肥经济开发区公司滨湖新区分部'}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.070395</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-06 15:55:36', 'ftime': '2019-10-06 15:55:36', 'context': '【济南转运中心公司】 已收入', 'location': None}, {'time': '2019-10-05 22:57:47', 'ftime': '2019-10-05 22:57:47', 'context': '【无锡转运中心】 已发出 下一站 【济南转运中心】', 'location': None}, {'time': '2019-10-05 22:52:06', 'ftime': '2019-10-05 22:52:06', 'context': '【无锡转运中心公司】 已收入', 'location': None}, {'time': '2019-10-05 19:44:05', 'ftime': '2019-10-05 19:44:05', 'context': '【江苏省无锡市宜兴市】 已发出 下一站 【无锡转运中心】', 'location': None}, {'time': '2019-10-05 19:24:02', 'ftime': '2019-10-05 19:24:02', 'context': '【江苏省无锡市宜兴市公司】 已打包', 'location': None}, {'time': '2019-10-05 19:20:00', 'ftime': '2019-10-05 19:20:00', 'context': '【江苏省无锡市宜兴市公司】 已收件 取件人: 顾宝军 (18306153867)', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.114019</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1438,22 +1433,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.016881</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1501,18 +1489,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 11:23:51', 'ftime': '2019-09-29 11:23:51', 'context': '派件已【签收】,签收人是【图片签收】签收网点是【常平】', 'location': ''}, {'time': '2019-09-29 11:23:51', 'ftime': '2019-09-29 11:23:51', 'context': '温馨提示：该货物可查签收图片查看图片', 'location': ''}, {'time': '2019-09-29 08:46:20', 'ftime': '2019-09-29 08:46:20', 'context': '【常平】的【刘俊豪】正在派件', 'location': ''}, {'time': '2019-09-29 08:10:08', 'ftime': '2019-09-29 08:10:08', 'context': '快件到达【常平】', 'location': ''}, {'time': '2019-09-29 02:14:48', 'ftime': '2019-09-29 02:14:48', 'context': '快件在【虎门分拨中心】装车,正发往【常平】', 'location': ''}, {'time': '2019-09-29 01:46:48', 'ftime': '2019-09-29 01:46:48', 'context': '快件到达【虎门分拨中心】', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.071072</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-17 17:05:43', 'ftime': '2019-09-17 17:05:43', 'context': '[湖北公安县公司]【荆州市】您的快件已送达 黄山头 保管，地址：黄山头镇睦邻街370号。如有问题请电联业务员：邓国新【15971580321】。相逢是缘,如果您对我的服务感到满意,给个五星好不好？【请在评价小件员处给予五星好评】', 'location': None}, {'time': '2019-09-17 13:07:11', 'ftime': '2019-09-17 13:07:11', 'context': '[湖北公安县公司]【荆州市】湖北公安县公司 派件员 邓国新 15971580321 正在为您派件', 'location': None}, {'time': '2019-09-17 08:16:39', 'ftime': '2019-09-17 08:16:39', 'context': '[湖北公安县公司]【荆州市】湖北公安县公司 派件员 邓国新 15971580321 正在为您派件', 'location': None}, {'time': '2019-09-16 23:30:46', 'ftime': '2019-09-16 23:30:46', 'context': '[湖北公安县公司]【荆州市】已离开 湖北公安县公司；发往 湖北公安县公司', 'location': None}, {'time': '2019-09-16 18:12:56', 'ftime': '2019-09-16 18:12:56', 'context': '[湖北武汉分拨中心]【武汉市】已离开 湖北武汉分拨中心；发往 湖北公安县公司', 'location': None}, {'time': '2019-09-16 17:09:53', 'ftime': '2019-09-16 17:09:53', 'context': '[湖北武汉分拨中心]【武汉市】已到达 湖北武汉分拨中心', 'location': None}, {'time': '2019-09-15 07:48:47', 'ftime': '2019-09-15 07:48:47', 'context': '[广东广州分拨中心]【广州市】已离开 广东广州分拨中心；发往 湖北武汉分拨中心', 'location': None}, {'time': '2019-09-15 07:17:55', 'ftime': '2019-09-15 07:17:55', 'context': '[广东广州分拨中心]【广州市】已离开 广东广州分拨中心；发往 湖北武汉分拨中心', 'location': None}, {'time': '2019-09-15 06:38:08', 'ftime': '2019-09-15 06:38:08', 'context': '[广东广州分拨中心]【广州市】已到达 广东广州分拨中心', 'location': None}, {'time': '2019-09-14 19:48:59', 'ftime': '2019-09-14 19:48:59', 'context': '[广东广州罗岗香雪公司]【广州市】广东广州罗岗香雪公司 已揽收', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.08142199999999999</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1562,18 +1555,23 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.009547</v>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>{'data': {'yesterday': {'date': '7日星期一', 'high': '高温 20℃', 'fx': '西南风', 'low': '低温 12℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '阴'}, 'city': '西安', 'forecast': [{'date': '8日星期二', 'high': '高温 18℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '9日星期三', 'high': '高温 15℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 12℃', 'fengxiang': '东北风', 'type': '小雨'}, {'date': '10日星期四', 'high': '高温 21℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 13℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '11日星期五', 'high': '高温 19℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 9℃', 'fengxiang': '南风', 'type': '小雨'}, {'date': '12日星期六', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 10℃', 'fengxiang': '东北风', 'type': '多云'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '16'}, 'status': 1000, 'desc': 'OK'}</t>
+        </is>
       </c>
       <c r="J19" s="3" t="n">
+        <v>0.008005</v>
+      </c>
+      <c r="K19" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K19" s="3" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1582,6 +1580,19 @@
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (1).xlsx
+++ b/data_excel/接口测试用例_ (1).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -49,6 +49,21 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color indexed="81"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="81"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,6 +190,12 @@
       <text>
         <t>个人用户:
 必须填写</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <t>个人用户:
+K项必测，M项不测</t>
       </text>
     </comment>
   </commentList>
@@ -474,8 +495,8 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -607,11 +628,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 14:36:24', 'ftime': '2019-10-08 14:36:24', 'context': '【三明市】 快件已由【百世邻里的嵩口快递站】代签收, 如有问题请电联（13960516263 / 18250560335）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-10-08 10:08:55', 'ftime': '2019-10-08 10:08:55', 'context': '【三明市】 【三明清流】 的高平（13960516263） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-08 10:07:29', 'ftime': '2019-10-08 10:07:29', 'context': '【三明市】 快件已经到达 【三明清流】', 'location': ''}, {'time': '2019-10-07 19:18:41', 'ftime': '2019-10-07 19:18:41', 'context': '【三明市】 快件离开 【三明中转】 已发往 【三明清流】', 'location': ''}, {'time': '2019-10-07 18:34:22', 'ftime': '2019-10-07 18:34:22', 'context': '【三明市】 快件已经到达 【三明中转】', 'location': ''}, {'time': '2019-10-07 11:10:15', 'ftime': '2019-10-07 11:10:15', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【三明中转】', 'location': ''}, {'time': '2019-10-07 11:09:02', 'ftime': '2019-10-07 11:09:02', 'context': '【泉州市】 快件已经到达 【泉州中转部】', 'location': ''}, {'time': '2019-10-06 15:01:44', 'ftime': '2019-10-06 15:01:44', 'context': '【杭州市】 快件离开 【桐庐】 已发往 【泉州中转部】', 'location': ''}, {'time': '2019-10-06 14:59:46', 'ftime': '2019-10-06 14:59:46', 'context': '【杭州市】 【桐庐】（0571-64622517、0571-64636577） 的 米友圈小件（15067144868） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 09:46:00', 'ftime': '2019-10-07 09:46:00', 'context': '[SAINT LOUIS, MO, US]已递送 ', 'location': 'SAINT LOUIS, MO, US'}, {'time': '2019-10-07 07:44:00', 'ftime': '2019-10-07 07:44:00', 'context': '[St. Louis, MO, United States]准备今天递送', 'location': 'St. Louis, MO, United States'}, {'time': '2019-10-05 08:40:00', 'ftime': '2019-10-05 08:40:00', 'context': '[St. Louis, MO, United States]目的地扫描', 'location': 'St. Louis, MO, United States'}, {'time': '2019-10-05 06:50:00', 'ftime': '2019-10-05 06:50:00', 'context': '[St. Louis, MO, United States]目的地扫描', 'location': 'St. Louis, MO, United States'}, {'time': '2019-10-05 05:12:00', 'ftime': '2019-10-05 05:12:00', 'context': '[St. Louis, MO, United States]抵达扫描', 'location': 'St. Louis, MO, United States'}, {'time': '2019-10-04 23:17:00', 'ftime': '2019-10-04 23:17:00', 'context': '[Hodgkins, IL, United States]启程扫描', 'location': 'Hodgkins, IL, United States'}, {'time': '2019-10-04 17:36:00', 'ftime': '2019-10-04 17:36:00', 'context': '[Hodgkins, IL, United States]抵达扫描', 'location': 'Hodgkins, IL, United States'}, {'time': '2019-10-04 13:56:00', 'ftime': '2019-10-04 13:56:00', 'context': '[Maumee, OH, United States]启程扫描', 'location': 'Maumee, OH, United States'}, {'time': '2019-10-04 13:34:00', 'ftime': '2019-10-04 13:34:00', 'context': '[Maumee, OH, United States]抵达扫描', 'location': 'Maumee, OH, United States'}, {'time': '2019-10-04 09:15:00', 'ftime': '2019-10-04 09:15:00', 'context': '[New Stanton, PA, United States]启程扫描', 'location': 'New Stanton, PA, United States'}, {'time': '2019-10-04 08:08:00', 'ftime': '2019-10-04 08:08:00', 'context': '[New Stanton, PA, United States]抵达扫描', 'location': 'New Stanton, PA, United States'}, {'time': '2019-10-04 03:43:00', 'ftime': '2019-10-04 03:43:00', 'context': '[Horsham, PA, United States]启程扫描', 'location': 'Horsham, PA, United States'}, {'time': '2019-10-03 22:13:00', 'ftime': '2019-10-03 22:13:00', 'context': '[Horsham, PA, United States]抵达扫描', 'location': 'Horsham, PA, United States'}, {'time': '2019-10-03 20:19:00', 'ftime': '2019-10-03 20:19:00', 'context': '[Newark, DE, United States]起运地扫描', 'location': 'Newark, DE, United States'}, {'time': '2019-10-03 11:52:00', 'ftime': '2019-10-03 11:52:00', 'context': '[United States]订单已处理： 为 UPS 准备就绪 ', 'location': 'United States'}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.081527</v>
+        <v>0.083304</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -677,7 +698,7 @@
         </is>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.01195</v>
+        <v>0.014028</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>200</v>
@@ -732,11 +753,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 16:34:43', 'context': '查无结果', 'ftime': '2019-09-10 16:34:43'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-22 14:59:46', 'ftime': '2019-09-22 14:59:46', 'context': '【六安市】 快件已在 【霍邱城区三部】 签收, 签收人: 阳光假日城3栋邮政代收点, 如有疑问请电联:18757559925 / 15556030567, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-22 13:57:40', 'ftime': '2019-09-22 13:57:40', 'context': '【六安市】 【霍邱城区三部】 的丛理想（18757559925） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-22 09:13:14', 'ftime': '2019-09-22 09:13:14', 'context': '【六安市】 快件已经到达 【霍邱城区三部】', 'location': ''}, {'time': '2019-09-22 09:13:06', 'ftime': '2019-09-22 09:13:06', 'context': '【六安市】 快件已经到达 【六安霍邱县】', 'location': ''}, {'time': '2019-09-22 04:03:42', 'ftime': '2019-09-22 04:03:42', 'context': '【合肥市】 快件离开 【合肥中转部】 已发往 【六安霍邱县】', 'location': ''}, {'time': '2019-09-22 04:03:27', 'ftime': '2019-09-22 04:03:27', 'context': '【合肥市】 快件已经到达 【合肥中转部】', 'location': ''}, {'time': '2019-09-21 05:18:16', 'ftime': '2019-09-21 05:18:16', 'context': '【广州市】 快件离开 【广州中心】 已发往 【合肥中转部】', 'location': ''}, {'time': '2019-09-21 05:14:44', 'ftime': '2019-09-21 05:14:44', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-09-21 02:46:15', 'ftime': '2019-09-21 02:46:15', 'context': '【广州市】 快件离开 【广州沙河】 已发往 【合肥中转部】', 'location': ''}, {'time': '2019-09-21 01:48:23', 'ftime': '2019-09-21 01:48:23', 'context': '【广州市】 【广州沙河】（020-22508850） 的 厉良庆（18924015916） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.06766</v>
+        <v>0.076031</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -836,11 +857,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'D01', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-06 16:15:06', 'ftime': '2019-10-06 16:15:06', 'context': '已签收,收发室,投递员:潘志刚w,电话:17731923458', 'location': None}, {'time': '2019-10-06 11:20:01', 'ftime': '2019-10-06 11:20:01', 'context': '【清河城区】安排投递,投递员:潘志刚w,电话:17731923458', 'location': None}, {'time': '2019-10-06 08:46:02', 'ftime': '2019-10-06 08:46:02', 'context': '到达【清河城区】（经转）', 'location': None}, {'time': '2019-10-06 05:22:11', 'ftime': '2019-10-06 05:22:11', 'context': '离开【邢台网路运营中心】，下一站【清河城区】（经转）', 'location': None}, {'time': '2019-10-05 20:38:36', 'ftime': '2019-10-05 20:38:36', 'context': '到达【邢台网路运营中心】（经转）', 'location': None}, {'time': '2019-10-05 18:30:58', 'ftime': '2019-10-05 18:30:58', 'context': '离开【石家中心】，下一站【邢台网路运营中心】（经转）', 'location': None}, {'time': '2019-10-05 09:02:02', 'ftime': '2019-10-05 09:02:02', 'context': '到达【石家中心】（经转）', 'location': None}, {'time': '2019-10-04 07:32:04', 'ftime': '2019-10-04 07:32:04', 'context': '离开【南昌中心】，下一站【石家中心】（经转）', 'location': None}, {'time': '2019-10-03 22:00:53', 'ftime': '2019-10-03 22:00:53', 'context': '到达【南昌中心】（经转）', 'location': None}, {'time': '2019-10-03 20:15:04', 'ftime': '2019-10-03 20:15:04', 'context': '离开【奉新中心】，下一站【南昌中心】（经转）', 'location': None}, {'time': '2019-10-03 19:38:42', 'ftime': '2019-10-03 19:38:42', 'context': '到达【奉新中心】（经转）', 'location': None}, {'time': '2019-10-03 19:37:59', 'ftime': '2019-10-03 19:37:59', 'context': '离开【大客户中心】，下一站【奉新中心】', 'location': None}, {'time': '2019-10-03 18:55:08', 'ftime': '2019-10-03 18:55:08', 'context': '【大客户中心】已收件,揽投员:赵昌根', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 16:54:47', 'context': '查无结果', 'ftime': '2019-09-15 16:54:47'}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.07012599999999999</v>
+        <v>0.06381100000000001</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -940,11 +961,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 08:56:12', 'ftime': '2019-10-07 08:56:12', 'context': '[广东广州白云区横滘公司]快件已被 圆通 代签收如有问题请联系张世广【15099983227】。', 'location': None}, {'time': '2019-10-07 08:33:35', 'ftime': '2019-10-07 08:33:35', 'context': '[广东广州白云区横滘公司]进行派件扫描；派送业务员：张世广；联系电话：15099983227', 'location': None}, {'time': '2019-10-06 19:18:25', 'ftime': '2019-10-06 19:18:25', 'context': '[广东广州分拨中心]从站点发出，本次转运目的地：广东广州白云区横滘公司', 'location': None}, {'time': '2019-10-06 19:17:28', 'ftime': '2019-10-06 19:17:28', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-04 22:05:19', 'ftime': '2019-10-04 22:05:19', 'context': '[内蒙古呼和浩特分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-04 19:01:18', 'ftime': '2019-10-04 19:01:18', 'context': '[内蒙主城区公司土默特左旗服务部]进行发出扫描，发往：内蒙古呼和浩特分拨中心', 'location': None}, {'time': '2019-10-04 18:56:32', 'ftime': '2019-10-04 18:56:32', 'context': '[内蒙主城区公司土默特左旗服务部]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-30 17:55:23', 'ftime': '2019-09-30 17:55:23', 'context': '【阿克苏地区】 快件已在 【阿克苏北城区】 签收, 签收人: 本人, 如有疑问请电联:17767531162 / 0997-5555255, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-30 10:44:21', 'ftime': '2019-09-30 10:44:21', 'context': '【阿克苏地区】 【阿克苏北城区】 的满科（17767531162） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-30 09:38:59', 'ftime': '2019-09-30 09:38:59', 'context': '【阿克苏地区】 快件已经到达 【阿克苏北城区】', 'location': ''}, {'time': '2019-09-30 02:38:44', 'ftime': '2019-09-30 02:38:44', 'context': '【阿克苏地区】 快件离开 【阿克苏】 已发往 【阿克苏北城区】', 'location': ''}, {'time': '2019-09-29 22:28:49', 'ftime': '2019-09-29 22:28:49', 'context': '【阿克苏地区】 快件已经到达 【阿克苏】', 'location': ''}, {'time': '2019-09-28 11:51:25', 'ftime': '2019-09-28 11:51:25', 'context': '【昌吉回族自治州】 快件离开 【乌鲁木齐中转】 已发往 【阿克苏】', 'location': ''}, {'time': '2019-09-27 23:27:51', 'ftime': '2019-09-27 23:27:51', 'context': '【昌吉回族自治州】 快件已经到达 【乌鲁木齐中转】', 'location': ''}, {'time': '2019-09-27 14:40:49', 'ftime': '2019-09-27 14:40:49', 'context': '【乌鲁木齐市】 快件离开 【天山区一部】 已发往 【乌鲁木齐中转】', 'location': ''}, {'time': '2019-09-27 14:39:41', 'ftime': '2019-09-27 14:39:41', 'context': '【乌鲁木齐市】 【天山区一部】（0991-2330095） 的 高照安（13029677887） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.07496899999999999</v>
+        <v>0.076863</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1044,11 +1065,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 15:13:51', 'ftime': '2019-10-08 15:13:51', 'context': '[辽宁阜新公司阜蒙县乡镇分部]快件已被 12354000031 代签收如有问题请联系季明全【15904229937】。', 'location': None}, {'time': '2019-10-08 08:59:02', 'ftime': '2019-10-08 08:59:02', 'context': '[辽宁阜新公司阜蒙县乡镇分部]进行派件扫描；派送业务员：季明全；联系电话：15904229937', 'location': None}, {'time': '2019-10-07 14:12:59', 'ftime': '2019-10-07 14:12:59', 'context': '[辽宁阜新公司]进行快件扫描，发往：辽宁阜新公司阜蒙县乡镇分部', 'location': None}, {'time': '2019-10-07 04:54:20', 'ftime': '2019-10-07 04:54:20', 'context': '[辽宁盘锦分拨中心]从站点发出，本次转运目的地：辽宁阜新公司', 'location': None}, {'time': '2019-10-07 03:14:27', 'ftime': '2019-10-07 03:14:27', 'context': '[辽宁盘锦分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-10-05 21:06:45', 'ftime': '2019-10-05 21:06:45', 'context': '[浙江义乌分拨中心]进行装车扫描，发往：辽宁盘锦分拨中心', 'location': None}, {'time': '2019-10-05 21:04:30', 'ftime': '2019-10-05 21:04:30', 'context': '[浙江义乌分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-05 20:02:51', 'ftime': '2019-10-05 20:02:51', 'context': '[浙江义乌山口公司]进行下级地点扫描，发往：辽宁盘锦分拨中心', 'location': None}, {'time': '2019-10-05 19:59:57', 'ftime': '2019-10-05 19:59:57', 'context': '[浙江义乌山口公司]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 08:18:47', 'ftime': '2019-10-08 08:18:47', 'context': '离开【航空中心】,下一站【海口航空邮件处理中心】', 'location': None}, {'time': '2019-10-07 21:17:58', 'ftime': '2019-10-07 21:17:58', 'context': '到达【福州邮件处理中心】', 'location': None}, {'time': '2019-10-07 20:50:08', 'ftime': '2019-10-07 20:50:08', 'context': '离开【福州城南电子商务营业部】,下一站【福州中心】', 'location': None}, {'time': '2019-10-07 16:00:42', 'ftime': '2019-10-07 16:00:42', 'context': '福州市 【福州城南电子商务营业部】已收件,揽投员:黄燕敏,电话:18059131062', 'location': None}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.07444199999999999</v>
+        <v>0.07070899999999999</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1157,11 +1178,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 13:34:19', 'ftime': '2019-10-08 13:34:19', 'context': '[广西桂林公司铁西分部]快件已被 速递易 代签收如有问题请联系谢恩维【17774715419】。', 'location': None}, {'time': '2019-10-08 13:07:19', 'ftime': '2019-10-08 13:07:19', 'context': '[广西桂林公司铁西分部]进行派件扫描；派送业务员：谢恩维；联系电话：17774715419', 'location': None}, {'time': '2019-10-08 12:08:05', 'ftime': '2019-10-08 12:08:05', 'context': '[广西桂林公司铁西分部]到达目的地网点，快件很快进行派送', 'location': None}, {'time': '2019-10-08 09:31:16', 'ftime': '2019-10-08 09:31:16', 'context': '[广西桂林公司]进行快件扫描，发往：广西桂林公司铁西分部', 'location': None}, {'time': '2019-10-07 11:21:36', 'ftime': '2019-10-07 11:21:36', 'context': '[湖南长沙分拨中心]从站点发出，本次转运目的地：广西桂林公司', 'location': None}, {'time': '2019-10-07 11:17:45', 'ftime': '2019-10-07 11:17:45', 'context': '[湖南长沙分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-10-07 02:51:41', 'ftime': '2019-10-07 02:51:41', 'context': '[湖北武汉分拨中心]进行装车扫描，发往：湖南长沙分拨中心', 'location': None}, {'time': '2019-10-07 02:42:19', 'ftime': '2019-10-07 02:42:19', 'context': '[湖北武汉分拨中心]进行中转集包扫描，发往：广西桂林公司', 'location': None}, {'time': '2019-10-07 02:18:23', 'ftime': '2019-10-07 02:18:23', 'context': '[湖北武汉分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-06 20:55:27', 'ftime': '2019-10-06 20:55:27', 'context': '[湖北主城区公司武汉汉阳区摩尔城服务部]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-14 16:54:47', 'context': '查无结果', 'ftime': '2019-09-14 16:54:47'}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.071978</v>
+        <v>0.067401</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1279,11 +1300,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-04 16:34:43', 'context': '查无结果', 'ftime': '2019-10-04 16:34:43'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 13:26:55', 'ftime': '2019-10-08 13:26:55', 'context': '【湖州市】 快件已在 【湖州凤凰三部】 签收, 签收人: 本人, 如有疑问请电联:13205828708 / 0572-2177617, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': None}, {'time': '2019-10-08 09:42:52', 'ftime': '2019-10-08 09:42:52', 'context': '【湖州市】 【湖州凤凰三部】 的程文（13205828708） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-10-08 09:42:51', 'ftime': '2019-10-08 09:42:51', 'context': '【湖州市】 快件已经到达 【湖州凤凰三部】', 'location': None}, {'time': '2019-10-08 06:31:10', 'ftime': '2019-10-08 06:31:10', 'context': '【湖州市】 快件离开 【湖州】 已发往 【湖州师院】', 'location': None}, {'time': '2019-10-08 06:29:04', 'ftime': '2019-10-08 06:29:04', 'context': '【湖州市】 快件已经到达 【湖州】', 'location': None}, {'time': '2019-10-07 22:52:35', 'ftime': '2019-10-07 22:52:35', 'context': '【嘉兴市】 快件离开 【杭州中转部】 已发往 【湖州】', 'location': None}, {'time': '2019-10-07 22:50:30', 'ftime': '2019-10-07 22:50:30', 'context': '【嘉兴市】 快件已经到达 【杭州中转部】', 'location': None}, {'time': '2019-10-07 19:17:52', 'ftime': '2019-10-07 19:17:52', 'context': '【杭州市】 快件离开 【杭州老余杭】 已发往 【湖州】', 'location': None}, {'time': '2019-10-07 18:35:36', 'ftime': '2019-10-07 18:35:36', 'context': '【杭州市】 【杭州老余杭】（0571-89003065、0571-89003056） 的 公司客户（18667033502） 已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.100069</v>
+        <v>0.074757</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1383,11 +1404,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-06 15:55:36', 'ftime': '2019-10-06 15:55:36', 'context': '【济南转运中心公司】 已收入', 'location': None}, {'time': '2019-10-05 22:57:47', 'ftime': '2019-10-05 22:57:47', 'context': '【无锡转运中心】 已发出 下一站 【济南转运中心】', 'location': None}, {'time': '2019-10-05 22:52:06', 'ftime': '2019-10-05 22:52:06', 'context': '【无锡转运中心公司】 已收入', 'location': None}, {'time': '2019-10-05 19:44:05', 'ftime': '2019-10-05 19:44:05', 'context': '【江苏省无锡市宜兴市】 已发出 下一站 【无锡转运中心】', 'location': None}, {'time': '2019-10-05 19:24:02', 'ftime': '2019-10-05 19:24:02', 'context': '【江苏省无锡市宜兴市公司】 已打包', 'location': None}, {'time': '2019-10-05 19:20:00', 'ftime': '2019-10-05 19:20:00', 'context': '【江苏省无锡市宜兴市公司】 已收件 取件人: 顾宝军 (18306153867)', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 12:11:00', 'ftime': '2019-10-07 12:11:00', 'context': '快件到达【广怀】', 'location': None}, {'time': '2019-10-07 08:15:00', 'ftime': '2019-10-07 08:15:00', 'context': '快件在【广州分拨中心】装车，准备发往【广怀】', 'location': None}, {'time': '2019-10-07 02:40:00', 'ftime': '2019-10-07 02:40:00', 'context': '快件在【东莞分拨中心】装车，准备发往【广州二班】', 'location': None}, {'time': '2019-10-07 01:39:00', 'ftime': '2019-10-07 01:39:00', 'context': '快件在【东莞分拨中心】装车，准备发往【广州二班】', 'location': None}, {'time': '2019-10-06 22:43:00', 'ftime': '2019-10-06 22:43:00', 'context': '快件在【江南】装车，准备发往【东莞分拨中心】', 'location': None}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.114019</v>
+        <v>0.073092</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1496,11 +1517,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-17 17:05:43', 'ftime': '2019-09-17 17:05:43', 'context': '[湖北公安县公司]【荆州市】您的快件已送达 黄山头 保管，地址：黄山头镇睦邻街370号。如有问题请电联业务员：邓国新【15971580321】。相逢是缘,如果您对我的服务感到满意,给个五星好不好？【请在评价小件员处给予五星好评】', 'location': None}, {'time': '2019-09-17 13:07:11', 'ftime': '2019-09-17 13:07:11', 'context': '[湖北公安县公司]【荆州市】湖北公安县公司 派件员 邓国新 15971580321 正在为您派件', 'location': None}, {'time': '2019-09-17 08:16:39', 'ftime': '2019-09-17 08:16:39', 'context': '[湖北公安县公司]【荆州市】湖北公安县公司 派件员 邓国新 15971580321 正在为您派件', 'location': None}, {'time': '2019-09-16 23:30:46', 'ftime': '2019-09-16 23:30:46', 'context': '[湖北公安县公司]【荆州市】已离开 湖北公安县公司；发往 湖北公安县公司', 'location': None}, {'time': '2019-09-16 18:12:56', 'ftime': '2019-09-16 18:12:56', 'context': '[湖北武汉分拨中心]【武汉市】已离开 湖北武汉分拨中心；发往 湖北公安县公司', 'location': None}, {'time': '2019-09-16 17:09:53', 'ftime': '2019-09-16 17:09:53', 'context': '[湖北武汉分拨中心]【武汉市】已到达 湖北武汉分拨中心', 'location': None}, {'time': '2019-09-15 07:48:47', 'ftime': '2019-09-15 07:48:47', 'context': '[广东广州分拨中心]【广州市】已离开 广东广州分拨中心；发往 湖北武汉分拨中心', 'location': None}, {'time': '2019-09-15 07:17:55', 'ftime': '2019-09-15 07:17:55', 'context': '[广东广州分拨中心]【广州市】已离开 广东广州分拨中心；发往 湖北武汉分拨中心', 'location': None}, {'time': '2019-09-15 06:38:08', 'ftime': '2019-09-15 06:38:08', 'context': '[广东广州分拨中心]【广州市】已到达 广东广州分拨中心', 'location': None}, {'time': '2019-09-14 19:48:59', 'ftime': '2019-09-14 19:48:59', 'context': '[广东广州罗岗香雪公司]【广州市】广东广州罗岗香雪公司 已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 15:37:15', 'ftime': '2019-10-08 15:37:15', 'context': '江苏扬州公司-京华城片区(15262226119,0514-85826666)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.08142199999999999</v>
+        <v>0.072744</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
@@ -1566,7 +1587,7 @@
         </is>
       </c>
       <c r="J19" s="3" t="n">
-        <v>0.008005</v>
+        <v>0.009663</v>
       </c>
       <c r="K19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (1).xlsx
+++ b/data_excel/接口测试用例_ (1).xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="E2" s="7" t="inlineStr">
@@ -644,11 +644,11 @@
       </c>
       <c r="I2" s="10" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-08-10 17:01:32', 'context': '查无结果', 'ftime': '2020-08-10 17:01:32'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2020-08-27 16:39:45', 'ftime': '2020-08-27 16:39:45', 'context': '快件已本人签收', 'location': '深圳南山九部'}, {'time': '2020-08-27 13:13:35', 'ftime': '2020-08-27 13:13:35', 'context': '优速物流快递的【深圳南山九部】的【何文飞】正在派件, 电话：13691956434。小哥今日体温正常，将佩戴口罩为您服务，也可以联系小哥将您的包裹放到指定点，祝您身体健康！', 'location': '深圳南山九部'}, {'time': '2020-08-27 07:24:36', 'ftime': '2020-08-27 07:24:36', 'context': '快件已到达优速物流快递的【深圳南山九部】,上一站是【深圳分拨中心（待撤销）】', 'location': '深圳南山九部'}, {'time': '2020-08-27 05:49:46', 'ftime': '2020-08-27 05:49:46', 'context': '快件已由优速物流快递的【深圳宝安分拨】发往【深圳南山九部】', 'location': '深圳宝安分拨'}, {'time': '2020-08-27 05:05:14', 'ftime': '2020-08-27 05:05:14', 'context': '快件已到达优速物流快递的【深圳宝安分拨】,上一站是【广州快递分拨】', 'location': '深圳宝安分拨'}, {'time': '2020-08-27 04:25:14', 'ftime': '2020-08-27 04:25:14', 'context': '快件已由优速物流快递的【广州快递分拨】发往【深圳宝安分拨】', 'location': '广州快递分拨'}, {'time': '2020-08-27 01:46:18', 'ftime': '2020-08-27 01:46:18', 'context': '快件已到达优速物流快递的【广州快递分拨】,上一站是【江海】', 'location': '广州快递分拨'}, {'time': '2020-08-26 21:03:50', 'ftime': '2020-08-26 21:03:50', 'context': '快件已由优速物流快递的【江门礼睦】发往【广州快递分拨】', 'location': '江门礼睦'}, {'time': '2020-08-26 21:03:24', 'ftime': '2020-08-26 21:03:24', 'context': '【江门礼睦】【陈英才】已收件', 'location': '江门礼睦'}]}</t>
         </is>
       </c>
       <c r="J2" s="10" t="n">
-        <v>0.080763</v>
+        <v>0.08305899999999999</v>
       </c>
       <c r="K2" s="10" t="n">
         <v>200</v>
@@ -710,11 +710,11 @@
       </c>
       <c r="I3" s="10" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '26日星期三', 'high': '高温 31℃', 'fx': '东风', 'low': '低温 19℃', 'fl': '&lt;![CDATA[1级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '27日星期四', 'high': '高温 32℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 20℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期五', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 21℃', 'fengxiang': '东风', 'type': '多云'}, {'date': '29日星期六', 'high': '高温 33℃', 'fengli': '&lt;![CDATA[3级]]&gt;', 'low': '低温 21℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '30日星期天', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3级]]&gt;', 'low': '低温 18℃', 'fengxiang': '西风', 'type': '多云'}, {'date': '31日星期一', 'high': '高温 27℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 18℃', 'fengxiang': '西南风', 'type': '多云'}], 'ganmao': '感冒易发期，外出请适当调整衣物，注意补充水分。', 'wendu': '32'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '26日星期三', 'high': '高温 31℃', 'fx': '东风', 'low': '低温 19℃', 'fl': '&lt;![CDATA[1级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '27日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 20℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期五', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 21℃', 'fengxiang': '东风', 'type': '多云'}, {'date': '29日星期六', 'high': '高温 33℃', 'fengli': '&lt;![CDATA[3级]]&gt;', 'low': '低温 21℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '30日星期天', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3级]]&gt;', 'low': '低温 18℃', 'fengxiang': '西风', 'type': '多云'}, {'date': '31日星期一', 'high': '高温 27℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 18℃', 'fengxiang': '西南风', 'type': '多云'}], 'ganmao': '感冒易发期，外出请适当调整衣物，注意补充水分。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J3" s="10" t="n">
-        <v>0.013796</v>
+        <v>0.011851</v>
       </c>
       <c r="K3" s="10" t="n">
         <v>200</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>GET</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr">
@@ -769,11 +769,11 @@
       </c>
       <c r="I4" s="10" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2020-08-19 17:54:26', 'ftime': '2020-08-19 17:54:26', 'context': '三明市|【清流县】，快递合并派送，有问题请联系江进龙18659868820 已签收', 'location': ''}, {'time': '2020-08-17 12:12:34', 'ftime': '2020-08-17 12:12:34', 'context': '三明市|【江进龙/18659868820】正在派件，【清流县/网点电话13960570329】', 'location': ''}, {'time': '2020-08-17 12:11:23', 'ftime': '2020-08-17 12:11:23', 'context': '三明市|到【清流县】', 'location': ''}, {'time': '2020-08-17 01:14:34', 'ftime': '2020-08-17 01:14:34', 'context': '三明市|【三明集散中心】，正发往【清流县】', 'location': ''}, {'time': '2020-08-16 23:52:18', 'ftime': '2020-08-16 23:52:18', 'context': '三明市|到【三明集散中心】', 'location': ''}, {'time': '2020-08-16 10:06:26', 'ftime': '2020-08-16 10:06:26', 'context': '泉州市|【泉州转运中心】，正发往【三明集散中心】', 'location': ''}, {'time': '2020-08-16 10:02:25', 'ftime': '2020-08-16 10:02:25', 'context': '泉州市|到【泉州转运中心】', 'location': ''}, {'time': '2020-08-15 20:06:58', 'ftime': '2020-08-15 20:06:58', 'context': '金华市|【义乌转运中心】，正发往【泉州转运中心】', 'location': ''}, {'time': '2020-08-15 20:04:55', 'ftime': '2020-08-15 20:04:55', 'context': '金华市|到【义乌转运中心】', 'location': ''}, {'time': '2020-08-15 17:00:57', 'ftime': '2020-08-15 17:00:57', 'context': '金华市|到【东阳六石集货点】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-08-27 04:18:03', 'ftime': '2020-08-27 04:18:03', 'context': '[广东省揭阳市榕城区]开始发往【SX】成都中转场', 'location': '广东省揭阳市榕城区'}, {'time': '2020-08-25 20:13:59', 'ftime': '2020-08-25 20:13:59', 'context': '[广东省揭阳市榕城区]已到达【SX】揭阳中转场', 'location': '广东省揭阳市榕城区'}, {'time': '2020-08-25 19:49:52', 'ftime': '2020-08-25 19:49:52', 'context': '[广东省潮州市潮安区]开始发往【SX】揭阳中转场', 'location': '广东省潮州市潮安区'}, {'time': '2020-08-25 15:46:37', 'ftime': '2020-08-25 15:46:37', 'context': '[广东省潮州市潮安区]【SX】潮州潮安庵埠庄陇店开始承运', 'location': '广东省潮州市潮安区'}]}</t>
         </is>
       </c>
       <c r="J4" s="10" t="n">
-        <v>0.065901</v>
+        <v>0.070109</v>
       </c>
       <c r="K4" s="10" t="n">
         <v>200</v>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.08058700000000001</v>
+        <v>0.082451</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (1).xlsx
+++ b/data_excel/接口测试用例_ (1).xlsx
@@ -644,11 +644,11 @@
       </c>
       <c r="I2" s="10" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2020-08-27 16:39:45', 'ftime': '2020-08-27 16:39:45', 'context': '快件已本人签收', 'location': '深圳南山九部'}, {'time': '2020-08-27 13:13:35', 'ftime': '2020-08-27 13:13:35', 'context': '优速物流快递的【深圳南山九部】的【何文飞】正在派件, 电话：13691956434。小哥今日体温正常，将佩戴口罩为您服务，也可以联系小哥将您的包裹放到指定点，祝您身体健康！', 'location': '深圳南山九部'}, {'time': '2020-08-27 07:24:36', 'ftime': '2020-08-27 07:24:36', 'context': '快件已到达优速物流快递的【深圳南山九部】,上一站是【深圳分拨中心（待撤销）】', 'location': '深圳南山九部'}, {'time': '2020-08-27 05:49:46', 'ftime': '2020-08-27 05:49:46', 'context': '快件已由优速物流快递的【深圳宝安分拨】发往【深圳南山九部】', 'location': '深圳宝安分拨'}, {'time': '2020-08-27 05:05:14', 'ftime': '2020-08-27 05:05:14', 'context': '快件已到达优速物流快递的【深圳宝安分拨】,上一站是【广州快递分拨】', 'location': '深圳宝安分拨'}, {'time': '2020-08-27 04:25:14', 'ftime': '2020-08-27 04:25:14', 'context': '快件已由优速物流快递的【广州快递分拨】发往【深圳宝安分拨】', 'location': '广州快递分拨'}, {'time': '2020-08-27 01:46:18', 'ftime': '2020-08-27 01:46:18', 'context': '快件已到达优速物流快递的【广州快递分拨】,上一站是【江海】', 'location': '广州快递分拨'}, {'time': '2020-08-26 21:03:50', 'ftime': '2020-08-26 21:03:50', 'context': '快件已由优速物流快递的【江门礼睦】发往【广州快递分拨】', 'location': '江门礼睦'}, {'time': '2020-08-26 21:03:24', 'ftime': '2020-08-26 21:03:24', 'context': '【江门礼睦】【陈英才】已收件', 'location': '江门礼睦'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2020-08-24 13:34:43', 'ftime': '2020-08-24 13:34:43', 'context': '【宁波市】您的快件已签收,签收人：同事，如有疑问请电联快递员：曾禄文【18312976020】。', 'location': '浙江宁波江东区韵捷公司'}, {'time': '2020-08-24 08:15:51', 'ftime': '2020-08-24 08:15:51', 'context': '【宁波市】浙江宁波江东区韵捷公司 快递员 曾禄文18312976020 正在为您派件【95114/95121/9501395546为韵达快递员外呼专属号码，请放心接听】', 'location': '浙江宁波江东区韵捷公司'}, {'time': '2020-08-23 18:52:57', 'ftime': '2020-08-23 18:52:57', 'context': '【宁波市】已离开 浙江宁波分拨中心；发往 浙江宁波江东区韵捷公司', 'location': '浙江宁波分拨中心'}, {'time': '2020-08-23 18:46:59', 'ftime': '2020-08-23 18:46:59', 'context': '【宁波市】已到达 浙江宁波分拨中心', 'location': '浙江宁波分拨中心'}, {'time': '2020-08-23 00:23:43', 'ftime': '2020-08-23 00:23:43', 'context': '【济南市】已离开 山东济南分拨中心；发往 浙江宁波分拨中心', 'location': '山东济南分拨中心'}, {'time': '2020-08-23 00:18:02', 'ftime': '2020-08-23 00:18:02', 'context': '【济南市】已到达 山东济南分拨中心', 'location': '山东济南分拨中心'}, {'time': '2020-08-21 18:40:42', 'ftime': '2020-08-21 18:40:42', 'context': '【济南市】山东济南北园清河公司 已揽收', 'location': '山东济南北园清河公司'}]}</t>
         </is>
       </c>
       <c r="J2" s="10" t="n">
-        <v>0.08305899999999999</v>
+        <v>0.085022</v>
       </c>
       <c r="K2" s="10" t="n">
         <v>200</v>
@@ -710,11 +710,11 @@
       </c>
       <c r="I3" s="10" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '26日星期三', 'high': '高温 31℃', 'fx': '东风', 'low': '低温 19℃', 'fl': '&lt;![CDATA[1级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '27日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 20℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期五', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 21℃', 'fengxiang': '东风', 'type': '多云'}, {'date': '29日星期六', 'high': '高温 33℃', 'fengli': '&lt;![CDATA[3级]]&gt;', 'low': '低温 21℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '30日星期天', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3级]]&gt;', 'low': '低温 18℃', 'fengxiang': '西风', 'type': '多云'}, {'date': '31日星期一', 'high': '高温 27℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 18℃', 'fengxiang': '西南风', 'type': '多云'}], 'ganmao': '感冒易发期，外出请适当调整衣物，注意补充水分。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '26日星期三', 'high': '高温 31℃', 'fx': '东风', 'low': '低温 19℃', 'fl': '&lt;![CDATA[1级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '27日星期四', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 20℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '28日星期五', 'high': '高温 31℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 21℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '29日星期六', 'high': '高温 33℃', 'fengli': '&lt;![CDATA[3级]]&gt;', 'low': '低温 21℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '30日星期天', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3级]]&gt;', 'low': '低温 18℃', 'fengxiang': '西风', 'type': '多云'}, {'date': '31日星期一', 'high': '高温 27℃', 'fengli': '&lt;![CDATA[2级]]&gt;', 'low': '低温 18℃', 'fengxiang': '西南风', 'type': '多云'}], 'ganmao': '感冒易发期，外出请适当调整衣物，注意补充水分。', 'wendu': '31'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="J3" s="10" t="n">
-        <v>0.011851</v>
+        <v>0.014894</v>
       </c>
       <c r="K3" s="10" t="n">
         <v>200</v>
@@ -769,11 +769,11 @@
       </c>
       <c r="I4" s="10" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2020-08-27 04:18:03', 'ftime': '2020-08-27 04:18:03', 'context': '[广东省揭阳市榕城区]开始发往【SX】成都中转场', 'location': '广东省揭阳市榕城区'}, {'time': '2020-08-25 20:13:59', 'ftime': '2020-08-25 20:13:59', 'context': '[广东省揭阳市榕城区]已到达【SX】揭阳中转场', 'location': '广东省揭阳市榕城区'}, {'time': '2020-08-25 19:49:52', 'ftime': '2020-08-25 19:49:52', 'context': '[广东省潮州市潮安区]开始发往【SX】揭阳中转场', 'location': '广东省潮州市潮安区'}, {'time': '2020-08-25 15:46:37', 'ftime': '2020-08-25 15:46:37', 'context': '[广东省潮州市潮安区]【SX】潮州潮安庵埠庄陇店开始承运', 'location': '广东省潮州市潮安区'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2020-08-11 17:47:57', 'context': '查无结果', 'ftime': '2020-08-11 17:47:57'}]}</t>
         </is>
       </c>
       <c r="J4" s="10" t="n">
-        <v>0.070109</v>
+        <v>0.06294</v>
       </c>
       <c r="K4" s="10" t="n">
         <v>200</v>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.082451</v>
+        <v>0.08462</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>200</v>
